--- a/data/Camp RIO Survey_CollegePrep_21-22.xlsx
+++ b/data/Camp RIO Survey_CollegePrep_21-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ideapublicschoolsorg-my.sharepoint.com/personal/aline_orr_ideapublicschools_org/Documents/Documents/Github/Camp-Rio-Year-3-21-22-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{5333927E-C285-4CC3-A151-A55CBA30E795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BD04344-3C01-409E-BE20-D51C1DCF9C14}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44BD4F13-1EF4-4B50-85C6-39D16070C855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11" yWindow="0" windowWidth="21246" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1274" yWindow="133" windowWidth="19296" windowHeight="10589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_56F9DC9755BA473782653E2940F9SourceDocId">"{ffa61626-90d8-4dd7-9f29-3f4b37ce3330}"</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2918,26 +2919,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2948,53 +2945,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AI572" totalsRowShown="0">
-  <autoFilter ref="A1:AI572" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI235">
-    <sortCondition descending="1" ref="C1:C235"/>
-  </sortState>
-  <tableColumns count="35">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start time"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Completion time"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Email"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Name"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Please enter your Student ID number."/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Which campus do you attend?"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Which grade are you currently in?"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Before today, how many times have you visited Camp RIO?"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="My ideal vacation spot would be a remote, wilderness area."/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="I always think about how my actions affect the environment."/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="My connection to nature and the environment is a part of my spirituality."/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="I take notice of wildlife wherever I am."/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="My relationship to nature is an important part of who I am."/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="I feel very connected to all living things and the earth."/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="My life is going well."/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="My life is just right."/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="I would like to change many things in my life."/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="I wish I had a different kind of life."/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="I have a good life."/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="I have what I want in life."/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="My life is better than most kids."/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Please share the most significant lesson or experience you took from this outdoor education experience"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Based on what you learned in this Camp RIO experience, what is your level of interest in land stewardship?"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="What are some of the land stewardship behaviors your currently practice?"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="How often do you try to practice land stewardship?"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="How many Science courses are you currently taking?"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="How confident are you that you can complete all the work that is assigned in your Science class or classes?"/>
-    <tableColumn id="28" xr3:uid="{6F65F555-E727-48EF-9EE0-399BBC476729}" name="When complicated ideas are presented in your Science class, how confident are you that you can understand them?"/>
-    <tableColumn id="29" xr3:uid="{567E4D01-2047-4AAF-AB9B-340D50E4A71C}" name="How confident are you that you can learn all the material presented in your Science class?"/>
-    <tableColumn id="30" xr3:uid="{B6F7FF7D-BFA7-403B-905C-AAFAB1775974}" name="How confident are you that you can do the hardest work that is assigned in your Science class?"/>
-    <tableColumn id="31" xr3:uid="{7BD46043-64EB-4CE2-B514-686B9FAAF46A}" name="How confident are you that you will remember what you learned in your current Science class, next year?"/>
-    <tableColumn id="32" xr3:uid="{6F935694-4E58-4E3F-9F17-E1BFAC9D65ED}" name="How confident are you that you can complete all the work that is assigned in your Science class?"/>
-    <tableColumn id="33" xr3:uid="{A038F46A-8EC9-49F1-8409-77118AC9FF44}" name="In the past week, including Saturday and Sunday, about how many hours per day did you spend outdoors in nature (in a park, a forest, a backyard or playground with trees, or a similar place)?"/>
-    <tableColumn id="34" xr3:uid="{2B6D67F9-57CB-42AB-8980-D59C993DE1D5}" name="Please enter your name."/>
-    <tableColumn id="35" xr3:uid="{94024E8F-F78D-42AE-BA3B-376CC07EFA34}" name="Please enter your name.2" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4752,7 +4702,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>44608.600300925929</v>
       </c>
@@ -5473,7 +5423,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44588.602361111109</v>
       </c>
@@ -6601,7 +6551,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>44588.594212962962</v>
       </c>
@@ -9557,140 +9507,140 @@
       <c r="AH62" s="3"/>
     </row>
     <row r="63" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+      <c r="A63" s="13">
         <v>44573.553425925929</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="13">
         <v>44573.589606481481</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9">
+      <c r="D63" s="10"/>
+      <c r="E63" s="10">
         <v>108056330</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="10">
         <v>11</v>
       </c>
-      <c r="H63" s="9">
-        <v>2</v>
-      </c>
-      <c r="I63" s="9">
-        <v>5</v>
-      </c>
-      <c r="J63" s="9">
-        <v>4</v>
-      </c>
-      <c r="K63" s="9">
-        <v>3</v>
-      </c>
-      <c r="L63" s="9">
-        <v>5</v>
-      </c>
-      <c r="M63" s="9">
-        <v>2</v>
-      </c>
-      <c r="N63" s="9">
-        <v>5</v>
-      </c>
-      <c r="O63" s="9">
-        <v>5</v>
-      </c>
-      <c r="P63" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q63" s="9">
-        <v>6</v>
-      </c>
-      <c r="R63" s="9">
-        <v>5</v>
-      </c>
-      <c r="S63" s="9">
-        <v>5</v>
-      </c>
-      <c r="T63" s="9">
-        <v>5</v>
-      </c>
-      <c r="U63" s="9">
-        <v>4</v>
-      </c>
-      <c r="V63" s="9" t="s">
+      <c r="H63" s="10">
+        <v>2</v>
+      </c>
+      <c r="I63" s="10">
+        <v>5</v>
+      </c>
+      <c r="J63" s="10">
+        <v>4</v>
+      </c>
+      <c r="K63" s="10">
+        <v>3</v>
+      </c>
+      <c r="L63" s="10">
+        <v>5</v>
+      </c>
+      <c r="M63" s="10">
+        <v>2</v>
+      </c>
+      <c r="N63" s="10">
+        <v>5</v>
+      </c>
+      <c r="O63" s="10">
+        <v>5</v>
+      </c>
+      <c r="P63" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>6</v>
+      </c>
+      <c r="R63" s="10">
+        <v>5</v>
+      </c>
+      <c r="S63" s="10">
+        <v>5</v>
+      </c>
+      <c r="T63" s="10">
+        <v>5</v>
+      </c>
+      <c r="U63" s="10">
+        <v>4</v>
+      </c>
+      <c r="V63" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="W63" s="9" t="s">
+      <c r="W63" s="10" t="s">
         <v>52</v>
       </c>
       <c r="X63" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="Y63" s="9" t="s">
+      <c r="Y63" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Z63" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA63" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB63" s="9" t="s">
+      <c r="Z63" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB63" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AC63" s="9" t="s">
+      <c r="AC63" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AD63" s="9" t="s">
+      <c r="AD63" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AE63" s="9" t="s">
+      <c r="AE63" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AF63" s="9"/>
-      <c r="AG63" s="9" t="s">
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AH63" s="9"/>
+      <c r="AH63" s="10"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
       <c r="X64" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-      <c r="AA64" s="9"/>
-      <c r="AB64" s="9"/>
-      <c r="AC64" s="9"/>
-      <c r="AD64" s="9"/>
-      <c r="AE64" s="9"/>
-      <c r="AF64" s="9"/>
-      <c r="AG64" s="9"/>
-      <c r="AH64" s="9"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="10"/>
+      <c r="AG64" s="10"/>
+      <c r="AH64" s="10"/>
     </row>
     <row r="65" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
@@ -9987,178 +9937,178 @@
       <c r="AH67" s="3"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A68" s="8">
+      <c r="A68" s="13">
         <v>44573.55369212963</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="13">
         <v>44573.589444444442</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9">
+      <c r="D68" s="10"/>
+      <c r="E68" s="10">
         <v>108022161</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="10">
         <v>11</v>
       </c>
-      <c r="H68" s="9">
-        <v>2</v>
-      </c>
-      <c r="I68" s="9">
-        <v>2</v>
-      </c>
-      <c r="J68" s="9">
-        <v>4</v>
-      </c>
-      <c r="K68" s="9">
-        <v>4</v>
-      </c>
-      <c r="L68" s="9">
-        <v>4</v>
-      </c>
-      <c r="M68" s="9">
-        <v>4</v>
-      </c>
-      <c r="N68" s="9">
-        <v>4</v>
-      </c>
-      <c r="O68" s="9">
-        <v>4</v>
-      </c>
-      <c r="P68" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q68" s="9">
-        <v>3</v>
-      </c>
-      <c r="R68" s="9">
-        <v>3</v>
-      </c>
-      <c r="S68" s="9">
-        <v>4</v>
-      </c>
-      <c r="T68" s="9">
-        <v>3</v>
-      </c>
-      <c r="U68" s="9">
-        <v>5</v>
-      </c>
-      <c r="V68" s="9" t="s">
+      <c r="H68" s="10">
+        <v>2</v>
+      </c>
+      <c r="I68" s="10">
+        <v>2</v>
+      </c>
+      <c r="J68" s="10">
+        <v>4</v>
+      </c>
+      <c r="K68" s="10">
+        <v>4</v>
+      </c>
+      <c r="L68" s="10">
+        <v>4</v>
+      </c>
+      <c r="M68" s="10">
+        <v>4</v>
+      </c>
+      <c r="N68" s="10">
+        <v>4</v>
+      </c>
+      <c r="O68" s="10">
+        <v>4</v>
+      </c>
+      <c r="P68" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q68" s="10">
+        <v>3</v>
+      </c>
+      <c r="R68" s="10">
+        <v>3</v>
+      </c>
+      <c r="S68" s="10">
+        <v>4</v>
+      </c>
+      <c r="T68" s="10">
+        <v>3</v>
+      </c>
+      <c r="U68" s="10">
+        <v>5</v>
+      </c>
+      <c r="V68" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="W68" s="9" t="s">
+      <c r="W68" s="10" t="s">
         <v>44</v>
       </c>
       <c r="X68" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="Y68" s="9" t="s">
+      <c r="Y68" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Z68" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA68" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB68" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC68" s="9" t="s">
+      <c r="Z68" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB68" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC68" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AD68" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE68" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF68" s="9"/>
-      <c r="AG68" s="9" t="s">
+      <c r="AD68" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE68" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF68" s="10"/>
+      <c r="AG68" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AH68" s="9"/>
+      <c r="AH68" s="10"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
       <c r="X69" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AA69" s="9"/>
-      <c r="AB69" s="9"/>
-      <c r="AC69" s="9"/>
-      <c r="AD69" s="9"/>
-      <c r="AE69" s="9"/>
-      <c r="AF69" s="9"/>
-      <c r="AG69" s="9"/>
-      <c r="AH69" s="9"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
+      <c r="AG69" s="10"/>
+      <c r="AH69" s="10"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
       <c r="X70" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-      <c r="AA70" s="9"/>
-      <c r="AB70" s="9"/>
-      <c r="AC70" s="9"/>
-      <c r="AD70" s="9"/>
-      <c r="AE70" s="9"/>
-      <c r="AF70" s="9"/>
-      <c r="AG70" s="9"/>
-      <c r="AH70" s="9"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="10"/>
+      <c r="AF70" s="10"/>
+      <c r="AG70" s="10"/>
+      <c r="AH70" s="10"/>
     </row>
     <row r="71" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
@@ -11141,176 +11091,176 @@
       <c r="AH80" s="4"/>
     </row>
     <row r="81" spans="1:34" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="10">
+      <c r="A81" s="11">
         <v>44566.612708333334</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="11">
         <v>44566.612754629627</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11">
+      <c r="D81" s="9"/>
+      <c r="E81" s="9">
         <v>108088360</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G81" s="9">
         <v>8</v>
       </c>
-      <c r="H81" s="11">
-        <v>1</v>
-      </c>
-      <c r="I81" s="11">
-        <v>2</v>
-      </c>
-      <c r="J81" s="11">
-        <v>4</v>
-      </c>
-      <c r="K81" s="11">
-        <v>2</v>
-      </c>
-      <c r="L81" s="11">
-        <v>3</v>
-      </c>
-      <c r="M81" s="11">
-        <v>3</v>
-      </c>
-      <c r="N81" s="11">
-        <v>2</v>
-      </c>
-      <c r="O81" s="11">
-        <v>4</v>
-      </c>
-      <c r="P81" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="11">
-        <v>4</v>
-      </c>
-      <c r="R81" s="11">
-        <v>4</v>
-      </c>
-      <c r="S81" s="11">
-        <v>4</v>
-      </c>
-      <c r="T81" s="11">
-        <v>6</v>
-      </c>
-      <c r="U81" s="11">
-        <v>3</v>
-      </c>
-      <c r="V81" s="11" t="s">
+      <c r="H81" s="9">
+        <v>1</v>
+      </c>
+      <c r="I81" s="9">
+        <v>2</v>
+      </c>
+      <c r="J81" s="9">
+        <v>4</v>
+      </c>
+      <c r="K81" s="9">
+        <v>2</v>
+      </c>
+      <c r="L81" s="9">
+        <v>3</v>
+      </c>
+      <c r="M81" s="9">
+        <v>3</v>
+      </c>
+      <c r="N81" s="9">
+        <v>2</v>
+      </c>
+      <c r="O81" s="9">
+        <v>4</v>
+      </c>
+      <c r="P81" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="9">
+        <v>4</v>
+      </c>
+      <c r="R81" s="9">
+        <v>4</v>
+      </c>
+      <c r="S81" s="9">
+        <v>4</v>
+      </c>
+      <c r="T81" s="9">
+        <v>6</v>
+      </c>
+      <c r="U81" s="9">
+        <v>3</v>
+      </c>
+      <c r="V81" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="W81" s="11" t="s">
+      <c r="W81" s="9" t="s">
         <v>44</v>
       </c>
       <c r="X81" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="Y81" s="11" t="s">
+      <c r="Y81" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Z81" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA81" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB81" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC81" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD81" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE81" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF81" s="11"/>
-      <c r="AG81" s="11" t="s">
+      <c r="Z81" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA81" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB81" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC81" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD81" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE81" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF81" s="9"/>
+      <c r="AG81" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AH81" s="11"/>
+      <c r="AH81" s="9"/>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
-      <c r="U82" s="11"/>
-      <c r="V82" s="11"/>
-      <c r="W82" s="11"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
       <c r="X82" s="5"/>
-      <c r="Y82" s="11"/>
-      <c r="Z82" s="11"/>
-      <c r="AA82" s="11"/>
-      <c r="AB82" s="11"/>
-      <c r="AC82" s="11"/>
-      <c r="AD82" s="11"/>
-      <c r="AE82" s="11"/>
-      <c r="AF82" s="11"/>
-      <c r="AG82" s="11"/>
-      <c r="AH82" s="11"/>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="9"/>
+      <c r="AA82" s="9"/>
+      <c r="AB82" s="9"/>
+      <c r="AC82" s="9"/>
+      <c r="AD82" s="9"/>
+      <c r="AE82" s="9"/>
+      <c r="AF82" s="9"/>
+      <c r="AG82" s="9"/>
+      <c r="AH82" s="9"/>
     </row>
     <row r="83" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="11"/>
-      <c r="V83" s="11"/>
-      <c r="W83" s="11"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
       <c r="X83" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="Y83" s="11"/>
-      <c r="Z83" s="11"/>
-      <c r="AA83" s="11"/>
-      <c r="AB83" s="11"/>
-      <c r="AC83" s="11"/>
-      <c r="AD83" s="11"/>
-      <c r="AE83" s="11"/>
-      <c r="AF83" s="11"/>
-      <c r="AG83" s="11"/>
-      <c r="AH83" s="11"/>
+      <c r="Y83" s="9"/>
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="9"/>
+      <c r="AB83" s="9"/>
+      <c r="AC83" s="9"/>
+      <c r="AD83" s="9"/>
+      <c r="AE83" s="9"/>
+      <c r="AF83" s="9"/>
+      <c r="AG83" s="9"/>
+      <c r="AH83" s="9"/>
     </row>
     <row r="84" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
@@ -14841,178 +14791,178 @@
       <c r="AH119" s="3"/>
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A120" s="8">
+      <c r="A120" s="13">
         <v>44565.594976851855</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B120" s="13">
         <v>44565.598032407404</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9">
+      <c r="D120" s="10"/>
+      <c r="E120" s="10">
         <v>108078819</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="F120" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G120" s="9">
+      <c r="G120" s="10">
         <v>9</v>
       </c>
-      <c r="H120" s="9">
-        <v>1</v>
-      </c>
-      <c r="I120" s="9">
-        <v>3</v>
-      </c>
-      <c r="J120" s="9">
-        <v>2</v>
-      </c>
-      <c r="K120" s="9">
-        <v>2</v>
-      </c>
-      <c r="L120" s="9">
-        <v>1</v>
-      </c>
-      <c r="M120" s="9">
-        <v>2</v>
-      </c>
-      <c r="N120" s="9">
-        <v>2</v>
-      </c>
-      <c r="O120" s="9">
-        <v>4</v>
-      </c>
-      <c r="P120" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q120" s="9">
-        <v>4</v>
-      </c>
-      <c r="R120" s="9">
-        <v>3</v>
-      </c>
-      <c r="S120" s="9">
-        <v>4</v>
-      </c>
-      <c r="T120" s="9">
-        <v>3</v>
-      </c>
-      <c r="U120" s="9">
-        <v>2</v>
-      </c>
-      <c r="V120" s="9" t="s">
+      <c r="H120" s="10">
+        <v>1</v>
+      </c>
+      <c r="I120" s="10">
+        <v>3</v>
+      </c>
+      <c r="J120" s="10">
+        <v>2</v>
+      </c>
+      <c r="K120" s="10">
+        <v>2</v>
+      </c>
+      <c r="L120" s="10">
+        <v>1</v>
+      </c>
+      <c r="M120" s="10">
+        <v>2</v>
+      </c>
+      <c r="N120" s="10">
+        <v>2</v>
+      </c>
+      <c r="O120" s="10">
+        <v>4</v>
+      </c>
+      <c r="P120" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q120" s="10">
+        <v>4</v>
+      </c>
+      <c r="R120" s="10">
+        <v>3</v>
+      </c>
+      <c r="S120" s="10">
+        <v>4</v>
+      </c>
+      <c r="T120" s="10">
+        <v>3</v>
+      </c>
+      <c r="U120" s="10">
+        <v>2</v>
+      </c>
+      <c r="V120" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="W120" s="9" t="s">
+      <c r="W120" s="10" t="s">
         <v>67</v>
       </c>
       <c r="X120" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="Y120" s="9" t="s">
+      <c r="Y120" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Z120" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA120" s="9" t="s">
+      <c r="Z120" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA120" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AB120" s="9" t="s">
+      <c r="AB120" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AC120" s="9" t="s">
+      <c r="AC120" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AD120" s="9" t="s">
+      <c r="AD120" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AE120" s="9" t="s">
+      <c r="AE120" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AF120" s="9"/>
-      <c r="AG120" s="9" t="s">
+      <c r="AF120" s="10"/>
+      <c r="AG120" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="AH120" s="9"/>
+      <c r="AH120" s="10"/>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
-      <c r="M121" s="9"/>
-      <c r="N121" s="9"/>
-      <c r="O121" s="9"/>
-      <c r="P121" s="9"/>
-      <c r="Q121" s="9"/>
-      <c r="R121" s="9"/>
-      <c r="S121" s="9"/>
-      <c r="T121" s="9"/>
-      <c r="U121" s="9"/>
-      <c r="V121" s="9"/>
-      <c r="W121" s="9"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10"/>
+      <c r="R121" s="10"/>
+      <c r="S121" s="10"/>
+      <c r="T121" s="10"/>
+      <c r="U121" s="10"/>
+      <c r="V121" s="10"/>
+      <c r="W121" s="10"/>
       <c r="X121" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="Y121" s="9"/>
-      <c r="Z121" s="9"/>
-      <c r="AA121" s="9"/>
-      <c r="AB121" s="9"/>
-      <c r="AC121" s="9"/>
-      <c r="AD121" s="9"/>
-      <c r="AE121" s="9"/>
-      <c r="AF121" s="9"/>
-      <c r="AG121" s="9"/>
-      <c r="AH121" s="9"/>
+      <c r="Y121" s="10"/>
+      <c r="Z121" s="10"/>
+      <c r="AA121" s="10"/>
+      <c r="AB121" s="10"/>
+      <c r="AC121" s="10"/>
+      <c r="AD121" s="10"/>
+      <c r="AE121" s="10"/>
+      <c r="AF121" s="10"/>
+      <c r="AG121" s="10"/>
+      <c r="AH121" s="10"/>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
-      <c r="N122" s="9"/>
-      <c r="O122" s="9"/>
-      <c r="P122" s="9"/>
-      <c r="Q122" s="9"/>
-      <c r="R122" s="9"/>
-      <c r="S122" s="9"/>
-      <c r="T122" s="9"/>
-      <c r="U122" s="9"/>
-      <c r="V122" s="9"/>
-      <c r="W122" s="9"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+      <c r="O122" s="10"/>
+      <c r="P122" s="10"/>
+      <c r="Q122" s="10"/>
+      <c r="R122" s="10"/>
+      <c r="S122" s="10"/>
+      <c r="T122" s="10"/>
+      <c r="U122" s="10"/>
+      <c r="V122" s="10"/>
+      <c r="W122" s="10"/>
       <c r="X122" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="Y122" s="9"/>
-      <c r="Z122" s="9"/>
-      <c r="AA122" s="9"/>
-      <c r="AB122" s="9"/>
-      <c r="AC122" s="9"/>
-      <c r="AD122" s="9"/>
-      <c r="AE122" s="9"/>
-      <c r="AF122" s="9"/>
-      <c r="AG122" s="9"/>
-      <c r="AH122" s="9"/>
+      <c r="Y122" s="10"/>
+      <c r="Z122" s="10"/>
+      <c r="AA122" s="10"/>
+      <c r="AB122" s="10"/>
+      <c r="AC122" s="10"/>
+      <c r="AD122" s="10"/>
+      <c r="AE122" s="10"/>
+      <c r="AF122" s="10"/>
+      <c r="AG122" s="10"/>
+      <c r="AH122" s="10"/>
     </row>
     <row r="123" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
@@ -15701,178 +15651,178 @@
       <c r="AH129" s="3"/>
     </row>
     <row r="130" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="8">
+      <c r="A130" s="13">
         <v>44565.586134259262</v>
       </c>
-      <c r="B130" s="8">
+      <c r="B130" s="13">
         <v>44565.596585648149</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9">
+      <c r="D130" s="10"/>
+      <c r="E130" s="10">
         <v>108029429</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="F130" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G130" s="9">
+      <c r="G130" s="10">
         <v>9</v>
       </c>
-      <c r="H130" s="9">
+      <c r="H130" s="10">
         <v>7</v>
       </c>
-      <c r="I130" s="9">
-        <v>3</v>
-      </c>
-      <c r="J130" s="9">
-        <v>5</v>
-      </c>
-      <c r="K130" s="9">
-        <v>3</v>
-      </c>
-      <c r="L130" s="9">
-        <v>5</v>
-      </c>
-      <c r="M130" s="9">
-        <v>3</v>
-      </c>
-      <c r="N130" s="9">
-        <v>2</v>
-      </c>
-      <c r="O130" s="9">
-        <v>5</v>
-      </c>
-      <c r="P130" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q130" s="9">
-        <v>2</v>
-      </c>
-      <c r="R130" s="9">
-        <v>1</v>
-      </c>
-      <c r="S130" s="9">
-        <v>6</v>
-      </c>
-      <c r="T130" s="9">
-        <v>6</v>
-      </c>
-      <c r="U130" s="9">
-        <v>6</v>
-      </c>
-      <c r="V130" s="9" t="s">
+      <c r="I130" s="10">
+        <v>3</v>
+      </c>
+      <c r="J130" s="10">
+        <v>5</v>
+      </c>
+      <c r="K130" s="10">
+        <v>3</v>
+      </c>
+      <c r="L130" s="10">
+        <v>5</v>
+      </c>
+      <c r="M130" s="10">
+        <v>3</v>
+      </c>
+      <c r="N130" s="10">
+        <v>2</v>
+      </c>
+      <c r="O130" s="10">
+        <v>5</v>
+      </c>
+      <c r="P130" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q130" s="10">
+        <v>2</v>
+      </c>
+      <c r="R130" s="10">
+        <v>1</v>
+      </c>
+      <c r="S130" s="10">
+        <v>6</v>
+      </c>
+      <c r="T130" s="10">
+        <v>6</v>
+      </c>
+      <c r="U130" s="10">
+        <v>6</v>
+      </c>
+      <c r="V130" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="W130" s="9" t="s">
+      <c r="W130" s="10" t="s">
         <v>44</v>
       </c>
       <c r="X130" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="Y130" s="9" t="s">
+      <c r="Y130" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Z130" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA130" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB130" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC130" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD130" s="9" t="s">
+      <c r="Z130" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA130" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB130" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC130" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD130" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AE130" s="9" t="s">
+      <c r="AE130" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AF130" s="9"/>
-      <c r="AG130" s="9" t="s">
+      <c r="AF130" s="10"/>
+      <c r="AG130" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AH130" s="9"/>
+      <c r="AH130" s="10"/>
     </row>
     <row r="131" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="9"/>
-      <c r="O131" s="9"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
-      <c r="R131" s="9"/>
-      <c r="S131" s="9"/>
-      <c r="T131" s="9"/>
-      <c r="U131" s="9"/>
-      <c r="V131" s="9"/>
-      <c r="W131" s="9"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="10"/>
+      <c r="O131" s="10"/>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="10"/>
+      <c r="R131" s="10"/>
+      <c r="S131" s="10"/>
+      <c r="T131" s="10"/>
+      <c r="U131" s="10"/>
+      <c r="V131" s="10"/>
+      <c r="W131" s="10"/>
       <c r="X131" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="Y131" s="9"/>
-      <c r="Z131" s="9"/>
-      <c r="AA131" s="9"/>
-      <c r="AB131" s="9"/>
-      <c r="AC131" s="9"/>
-      <c r="AD131" s="9"/>
-      <c r="AE131" s="9"/>
-      <c r="AF131" s="9"/>
-      <c r="AG131" s="9"/>
-      <c r="AH131" s="9"/>
+      <c r="Y131" s="10"/>
+      <c r="Z131" s="10"/>
+      <c r="AA131" s="10"/>
+      <c r="AB131" s="10"/>
+      <c r="AC131" s="10"/>
+      <c r="AD131" s="10"/>
+      <c r="AE131" s="10"/>
+      <c r="AF131" s="10"/>
+      <c r="AG131" s="10"/>
+      <c r="AH131" s="10"/>
     </row>
     <row r="132" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="9"/>
-      <c r="O132" s="9"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="9"/>
-      <c r="S132" s="9"/>
-      <c r="T132" s="9"/>
-      <c r="U132" s="9"/>
-      <c r="V132" s="9"/>
-      <c r="W132" s="9"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+      <c r="O132" s="10"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10"/>
+      <c r="R132" s="10"/>
+      <c r="S132" s="10"/>
+      <c r="T132" s="10"/>
+      <c r="U132" s="10"/>
+      <c r="V132" s="10"/>
+      <c r="W132" s="10"/>
       <c r="X132" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="Y132" s="9"/>
-      <c r="Z132" s="9"/>
-      <c r="AA132" s="9"/>
-      <c r="AB132" s="9"/>
-      <c r="AC132" s="9"/>
-      <c r="AD132" s="9"/>
-      <c r="AE132" s="9"/>
-      <c r="AF132" s="9"/>
-      <c r="AG132" s="9"/>
-      <c r="AH132" s="9"/>
+      <c r="Y132" s="10"/>
+      <c r="Z132" s="10"/>
+      <c r="AA132" s="10"/>
+      <c r="AB132" s="10"/>
+      <c r="AC132" s="10"/>
+      <c r="AD132" s="10"/>
+      <c r="AE132" s="10"/>
+      <c r="AF132" s="10"/>
+      <c r="AG132" s="10"/>
+      <c r="AH132" s="10"/>
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
@@ -16365,274 +16315,274 @@
       <c r="AH137" s="3"/>
     </row>
     <row r="138" spans="1:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="8">
+      <c r="A138" s="13">
         <v>44546.591412037036</v>
       </c>
-      <c r="B138" s="8">
+      <c r="B138" s="13">
         <v>44546.593946759262</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9">
+      <c r="D138" s="10"/>
+      <c r="E138" s="10">
         <v>108042435</v>
       </c>
-      <c r="F138" s="9" t="s">
+      <c r="F138" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="G138" s="9">
+      <c r="G138" s="10">
         <v>7</v>
       </c>
-      <c r="H138" s="9">
-        <v>5</v>
-      </c>
-      <c r="I138" s="9">
-        <v>3</v>
-      </c>
-      <c r="J138" s="9">
-        <v>3</v>
-      </c>
-      <c r="K138" s="9">
-        <v>2</v>
-      </c>
-      <c r="L138" s="9">
-        <v>3</v>
-      </c>
-      <c r="M138" s="9">
-        <v>2</v>
-      </c>
-      <c r="N138" s="9">
-        <v>2</v>
-      </c>
-      <c r="O138" s="9">
-        <v>2</v>
-      </c>
-      <c r="P138" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q138" s="9">
-        <v>2</v>
-      </c>
-      <c r="R138" s="9">
-        <v>2</v>
-      </c>
-      <c r="S138" s="9">
-        <v>5</v>
-      </c>
-      <c r="T138" s="9">
-        <v>5</v>
-      </c>
-      <c r="U138" s="9">
-        <v>3</v>
-      </c>
-      <c r="V138" s="9" t="s">
+      <c r="H138" s="10">
+        <v>5</v>
+      </c>
+      <c r="I138" s="10">
+        <v>3</v>
+      </c>
+      <c r="J138" s="10">
+        <v>3</v>
+      </c>
+      <c r="K138" s="10">
+        <v>2</v>
+      </c>
+      <c r="L138" s="10">
+        <v>3</v>
+      </c>
+      <c r="M138" s="10">
+        <v>2</v>
+      </c>
+      <c r="N138" s="10">
+        <v>2</v>
+      </c>
+      <c r="O138" s="10">
+        <v>2</v>
+      </c>
+      <c r="P138" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q138" s="10">
+        <v>2</v>
+      </c>
+      <c r="R138" s="10">
+        <v>2</v>
+      </c>
+      <c r="S138" s="10">
+        <v>5</v>
+      </c>
+      <c r="T138" s="10">
+        <v>5</v>
+      </c>
+      <c r="U138" s="10">
+        <v>3</v>
+      </c>
+      <c r="V138" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="W138" s="9" t="s">
+      <c r="W138" s="10" t="s">
         <v>67</v>
       </c>
       <c r="X138" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="Y138" s="9" t="s">
+      <c r="Y138" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Z138" s="9">
+      <c r="Z138" s="10">
         <v>0</v>
       </c>
-      <c r="AA138" s="9" t="s">
+      <c r="AA138" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AB138" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC138" s="9" t="s">
+      <c r="AB138" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC138" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AD138" s="9" t="s">
+      <c r="AD138" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AE138" s="9" t="s">
+      <c r="AE138" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AF138" s="9"/>
-      <c r="AG138" s="9" t="s">
+      <c r="AF138" s="10"/>
+      <c r="AG138" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AH138" s="9"/>
+      <c r="AH138" s="10"/>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
-      <c r="K139" s="9"/>
-      <c r="L139" s="9"/>
-      <c r="M139" s="9"/>
-      <c r="N139" s="9"/>
-      <c r="O139" s="9"/>
-      <c r="P139" s="9"/>
-      <c r="Q139" s="9"/>
-      <c r="R139" s="9"/>
-      <c r="S139" s="9"/>
-      <c r="T139" s="9"/>
-      <c r="U139" s="9"/>
-      <c r="V139" s="9"/>
-      <c r="W139" s="9"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="10"/>
+      <c r="L139" s="10"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="10"/>
+      <c r="O139" s="10"/>
+      <c r="P139" s="10"/>
+      <c r="Q139" s="10"/>
+      <c r="R139" s="10"/>
+      <c r="S139" s="10"/>
+      <c r="T139" s="10"/>
+      <c r="U139" s="10"/>
+      <c r="V139" s="10"/>
+      <c r="W139" s="10"/>
       <c r="X139" s="12"/>
-      <c r="Y139" s="9"/>
-      <c r="Z139" s="9"/>
-      <c r="AA139" s="9"/>
-      <c r="AB139" s="9"/>
-      <c r="AC139" s="9"/>
-      <c r="AD139" s="9"/>
-      <c r="AE139" s="9"/>
-      <c r="AF139" s="9"/>
-      <c r="AG139" s="9"/>
-      <c r="AH139" s="9"/>
+      <c r="Y139" s="10"/>
+      <c r="Z139" s="10"/>
+      <c r="AA139" s="10"/>
+      <c r="AB139" s="10"/>
+      <c r="AC139" s="10"/>
+      <c r="AD139" s="10"/>
+      <c r="AE139" s="10"/>
+      <c r="AF139" s="10"/>
+      <c r="AG139" s="10"/>
+      <c r="AH139" s="10"/>
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A140" s="10">
+      <c r="A140" s="11">
         <v>44546.591273148151</v>
       </c>
-      <c r="B140" s="10">
+      <c r="B140" s="11">
         <v>44546.593784722223</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11">
+      <c r="D140" s="9"/>
+      <c r="E140" s="9">
         <v>108095941</v>
       </c>
-      <c r="F140" s="11" t="s">
+      <c r="F140" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G140" s="11">
+      <c r="G140" s="9">
         <v>7</v>
       </c>
-      <c r="H140" s="11">
-        <v>1</v>
-      </c>
-      <c r="I140" s="11">
-        <v>1</v>
-      </c>
-      <c r="J140" s="11">
-        <v>5</v>
-      </c>
-      <c r="K140" s="11">
-        <v>3</v>
-      </c>
-      <c r="L140" s="11">
-        <v>4</v>
-      </c>
-      <c r="M140" s="11">
-        <v>4</v>
-      </c>
-      <c r="N140" s="11">
-        <v>4</v>
-      </c>
-      <c r="O140" s="11">
-        <v>5</v>
-      </c>
-      <c r="P140" s="11">
-        <v>6</v>
-      </c>
-      <c r="Q140" s="11">
-        <v>4</v>
-      </c>
-      <c r="R140" s="11">
-        <v>2</v>
-      </c>
-      <c r="S140" s="11">
-        <v>6</v>
-      </c>
-      <c r="T140" s="11">
-        <v>6</v>
-      </c>
-      <c r="U140" s="11">
-        <v>4</v>
-      </c>
-      <c r="V140" s="11" t="s">
+      <c r="H140" s="9">
+        <v>1</v>
+      </c>
+      <c r="I140" s="9">
+        <v>1</v>
+      </c>
+      <c r="J140" s="9">
+        <v>5</v>
+      </c>
+      <c r="K140" s="9">
+        <v>3</v>
+      </c>
+      <c r="L140" s="9">
+        <v>4</v>
+      </c>
+      <c r="M140" s="9">
+        <v>4</v>
+      </c>
+      <c r="N140" s="9">
+        <v>4</v>
+      </c>
+      <c r="O140" s="9">
+        <v>5</v>
+      </c>
+      <c r="P140" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q140" s="9">
+        <v>4</v>
+      </c>
+      <c r="R140" s="9">
+        <v>2</v>
+      </c>
+      <c r="S140" s="9">
+        <v>6</v>
+      </c>
+      <c r="T140" s="9">
+        <v>6</v>
+      </c>
+      <c r="U140" s="9">
+        <v>4</v>
+      </c>
+      <c r="V140" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="W140" s="11" t="s">
+      <c r="W140" s="9" t="s">
         <v>44</v>
       </c>
       <c r="X140" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="Y140" s="11" t="s">
+      <c r="Y140" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Z140" s="11">
+      <c r="Z140" s="9">
         <v>0</v>
       </c>
-      <c r="AA140" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB140" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC140" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD140" s="11" t="s">
+      <c r="AA140" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB140" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC140" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD140" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AE140" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF140" s="11"/>
-      <c r="AG140" s="11" t="s">
+      <c r="AE140" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF140" s="9"/>
+      <c r="AG140" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AH140" s="11"/>
+      <c r="AH140" s="9"/>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="11"/>
-      <c r="L141" s="11"/>
-      <c r="M141" s="11"/>
-      <c r="N141" s="11"/>
-      <c r="O141" s="11"/>
-      <c r="P141" s="11"/>
-      <c r="Q141" s="11"/>
-      <c r="R141" s="11"/>
-      <c r="S141" s="11"/>
-      <c r="T141" s="11"/>
-      <c r="U141" s="11"/>
-      <c r="V141" s="11"/>
-      <c r="W141" s="11"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9"/>
+      <c r="R141" s="9"/>
+      <c r="S141" s="9"/>
+      <c r="T141" s="9"/>
+      <c r="U141" s="9"/>
+      <c r="V141" s="9"/>
+      <c r="W141" s="9"/>
       <c r="X141" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="Y141" s="11"/>
-      <c r="Z141" s="11"/>
-      <c r="AA141" s="11"/>
-      <c r="AB141" s="11"/>
-      <c r="AC141" s="11"/>
-      <c r="AD141" s="11"/>
-      <c r="AE141" s="11"/>
-      <c r="AF141" s="11"/>
-      <c r="AG141" s="11"/>
-      <c r="AH141" s="11"/>
+      <c r="Y141" s="9"/>
+      <c r="Z141" s="9"/>
+      <c r="AA141" s="9"/>
+      <c r="AB141" s="9"/>
+      <c r="AC141" s="9"/>
+      <c r="AD141" s="9"/>
+      <c r="AE141" s="9"/>
+      <c r="AF141" s="9"/>
+      <c r="AG141" s="9"/>
+      <c r="AH141" s="9"/>
     </row>
     <row r="142" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
@@ -31563,102 +31513,102 @@
       </c>
     </row>
     <row r="292" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="8">
+      <c r="A292" s="13">
         <v>44615.580254629633</v>
       </c>
-      <c r="B292" s="8">
+      <c r="B292" s="13">
         <v>44615.601087962961</v>
       </c>
-      <c r="C292" s="9" t="s">
+      <c r="C292" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D292" s="9"/>
-      <c r="E292" s="9">
+      <c r="D292" s="10"/>
+      <c r="E292" s="10">
         <v>108110563</v>
       </c>
-      <c r="F292" s="9" t="s">
+      <c r="F292" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G292" s="9">
-        <v>6</v>
-      </c>
-      <c r="H292" s="9">
-        <v>1</v>
-      </c>
-      <c r="I292" s="9">
-        <v>4</v>
-      </c>
-      <c r="J292" s="9">
-        <v>5</v>
-      </c>
-      <c r="K292" s="9">
-        <v>4</v>
-      </c>
-      <c r="L292" s="9">
-        <v>3</v>
-      </c>
-      <c r="M292" s="9">
-        <v>4</v>
-      </c>
-      <c r="N292" s="9">
-        <v>5</v>
-      </c>
-      <c r="O292" s="9">
-        <v>5</v>
-      </c>
-      <c r="P292" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q292" s="9">
-        <v>4</v>
-      </c>
-      <c r="R292" s="9">
-        <v>5</v>
-      </c>
-      <c r="S292" s="9">
-        <v>6</v>
-      </c>
-      <c r="T292" s="9">
-        <v>5</v>
-      </c>
-      <c r="U292" s="9">
-        <v>4</v>
-      </c>
-      <c r="V292" s="9" t="s">
+      <c r="G292" s="10">
+        <v>6</v>
+      </c>
+      <c r="H292" s="10">
+        <v>1</v>
+      </c>
+      <c r="I292" s="10">
+        <v>4</v>
+      </c>
+      <c r="J292" s="10">
+        <v>5</v>
+      </c>
+      <c r="K292" s="10">
+        <v>4</v>
+      </c>
+      <c r="L292" s="10">
+        <v>3</v>
+      </c>
+      <c r="M292" s="10">
+        <v>4</v>
+      </c>
+      <c r="N292" s="10">
+        <v>5</v>
+      </c>
+      <c r="O292" s="10">
+        <v>5</v>
+      </c>
+      <c r="P292" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q292" s="10">
+        <v>4</v>
+      </c>
+      <c r="R292" s="10">
+        <v>5</v>
+      </c>
+      <c r="S292" s="10">
+        <v>6</v>
+      </c>
+      <c r="T292" s="10">
+        <v>5</v>
+      </c>
+      <c r="U292" s="10">
+        <v>4</v>
+      </c>
+      <c r="V292" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="W292" s="9" t="s">
+      <c r="W292" s="10" t="s">
         <v>37</v>
       </c>
       <c r="X292" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="Y292" s="9" t="s">
+      <c r="Y292" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Z292" s="9">
+      <c r="Z292" s="10">
         <v>0</v>
       </c>
-      <c r="AA292" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB292" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC292" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD292" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE292" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF292" s="9"/>
-      <c r="AG292" s="9" t="s">
+      <c r="AA292" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB292" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC292" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD292" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE292" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF292" s="10"/>
+      <c r="AG292" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AH292" s="9" t="s">
+      <c r="AH292" s="10" t="s">
         <v>383</v>
       </c>
       <c r="AI292" t="s">
@@ -31666,40 +31616,40 @@
       </c>
     </row>
     <row r="293" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A293" s="8"/>
-      <c r="B293" s="8"/>
-      <c r="C293" s="9"/>
-      <c r="D293" s="9"/>
-      <c r="E293" s="9"/>
-      <c r="F293" s="9"/>
-      <c r="G293" s="9"/>
-      <c r="H293" s="9"/>
-      <c r="I293" s="9"/>
-      <c r="J293" s="9"/>
-      <c r="K293" s="9"/>
-      <c r="L293" s="9"/>
-      <c r="M293" s="9"/>
-      <c r="N293" s="9"/>
-      <c r="O293" s="9"/>
-      <c r="P293" s="9"/>
-      <c r="Q293" s="9"/>
-      <c r="R293" s="9"/>
-      <c r="S293" s="9"/>
-      <c r="T293" s="9"/>
-      <c r="U293" s="9"/>
-      <c r="V293" s="9"/>
-      <c r="W293" s="9"/>
+      <c r="A293" s="13"/>
+      <c r="B293" s="13"/>
+      <c r="C293" s="10"/>
+      <c r="D293" s="10"/>
+      <c r="E293" s="10"/>
+      <c r="F293" s="10"/>
+      <c r="G293" s="10"/>
+      <c r="H293" s="10"/>
+      <c r="I293" s="10"/>
+      <c r="J293" s="10"/>
+      <c r="K293" s="10"/>
+      <c r="L293" s="10"/>
+      <c r="M293" s="10"/>
+      <c r="N293" s="10"/>
+      <c r="O293" s="10"/>
+      <c r="P293" s="10"/>
+      <c r="Q293" s="10"/>
+      <c r="R293" s="10"/>
+      <c r="S293" s="10"/>
+      <c r="T293" s="10"/>
+      <c r="U293" s="10"/>
+      <c r="V293" s="10"/>
+      <c r="W293" s="10"/>
       <c r="X293" s="12"/>
-      <c r="Y293" s="9"/>
-      <c r="Z293" s="9"/>
-      <c r="AA293" s="9"/>
-      <c r="AB293" s="9"/>
-      <c r="AC293" s="9"/>
-      <c r="AD293" s="9"/>
-      <c r="AE293" s="9"/>
-      <c r="AF293" s="9"/>
-      <c r="AG293" s="9"/>
-      <c r="AH293" s="9"/>
+      <c r="Y293" s="10"/>
+      <c r="Z293" s="10"/>
+      <c r="AA293" s="10"/>
+      <c r="AB293" s="10"/>
+      <c r="AC293" s="10"/>
+      <c r="AD293" s="10"/>
+      <c r="AE293" s="10"/>
+      <c r="AF293" s="10"/>
+      <c r="AG293" s="10"/>
+      <c r="AH293" s="10"/>
       <c r="AI293" t="s">
         <v>405</v>
       </c>
@@ -35411,102 +35361,102 @@
       </c>
     </row>
     <row r="330" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A330" s="10">
+      <c r="A330" s="11">
         <v>44629.486828703702</v>
       </c>
-      <c r="B330" s="10">
+      <c r="B330" s="11">
         <v>44629.489282407405</v>
       </c>
-      <c r="C330" s="11" t="s">
+      <c r="C330" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D330" s="11"/>
-      <c r="E330" s="11">
+      <c r="D330" s="9"/>
+      <c r="E330" s="9">
         <v>108079726</v>
       </c>
-      <c r="F330" s="11" t="s">
+      <c r="F330" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="G330" s="11">
+      <c r="G330" s="9">
         <v>9</v>
       </c>
-      <c r="H330" s="11">
+      <c r="H330" s="9">
         <v>0</v>
       </c>
-      <c r="I330" s="11">
-        <v>4</v>
-      </c>
-      <c r="J330" s="11">
-        <v>4</v>
-      </c>
-      <c r="K330" s="11">
-        <v>4</v>
-      </c>
-      <c r="L330" s="11">
-        <v>5</v>
-      </c>
-      <c r="M330" s="11">
-        <v>4</v>
-      </c>
-      <c r="N330" s="11">
-        <v>3</v>
-      </c>
-      <c r="O330" s="11">
-        <v>4</v>
-      </c>
-      <c r="P330" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q330" s="11">
-        <v>6</v>
-      </c>
-      <c r="R330" s="11">
-        <v>3</v>
-      </c>
-      <c r="S330" s="11">
-        <v>4</v>
-      </c>
-      <c r="T330" s="11">
-        <v>3</v>
-      </c>
-      <c r="U330" s="11">
-        <v>4</v>
-      </c>
-      <c r="V330" s="11" t="s">
+      <c r="I330" s="9">
+        <v>4</v>
+      </c>
+      <c r="J330" s="9">
+        <v>4</v>
+      </c>
+      <c r="K330" s="9">
+        <v>4</v>
+      </c>
+      <c r="L330" s="9">
+        <v>5</v>
+      </c>
+      <c r="M330" s="9">
+        <v>4</v>
+      </c>
+      <c r="N330" s="9">
+        <v>3</v>
+      </c>
+      <c r="O330" s="9">
+        <v>4</v>
+      </c>
+      <c r="P330" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q330" s="9">
+        <v>6</v>
+      </c>
+      <c r="R330" s="9">
+        <v>3</v>
+      </c>
+      <c r="S330" s="9">
+        <v>4</v>
+      </c>
+      <c r="T330" s="9">
+        <v>3</v>
+      </c>
+      <c r="U330" s="9">
+        <v>4</v>
+      </c>
+      <c r="V330" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="W330" s="11" t="s">
+      <c r="W330" s="9" t="s">
         <v>44</v>
       </c>
       <c r="X330" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="Y330" s="11" t="s">
+      <c r="Y330" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Z330" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA330" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB330" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC330" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD330" s="11" t="s">
+      <c r="Z330" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA330" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB330" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC330" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD330" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AE330" s="11" t="s">
+      <c r="AE330" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AF330" s="11"/>
-      <c r="AG330" s="11" t="s">
+      <c r="AF330" s="9"/>
+      <c r="AG330" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AH330" s="11" t="s">
+      <c r="AH330" s="9" t="s">
         <v>448</v>
       </c>
       <c r="AI330" t="s">
@@ -35514,42 +35464,42 @@
       </c>
     </row>
     <row r="331" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A331" s="10"/>
-      <c r="B331" s="10"/>
-      <c r="C331" s="11"/>
-      <c r="D331" s="11"/>
-      <c r="E331" s="11"/>
-      <c r="F331" s="11"/>
-      <c r="G331" s="11"/>
-      <c r="H331" s="11"/>
-      <c r="I331" s="11"/>
-      <c r="J331" s="11"/>
-      <c r="K331" s="11"/>
-      <c r="L331" s="11"/>
-      <c r="M331" s="11"/>
-      <c r="N331" s="11"/>
-      <c r="O331" s="11"/>
-      <c r="P331" s="11"/>
-      <c r="Q331" s="11"/>
-      <c r="R331" s="11"/>
-      <c r="S331" s="11"/>
-      <c r="T331" s="11"/>
-      <c r="U331" s="11"/>
-      <c r="V331" s="11"/>
-      <c r="W331" s="11"/>
+      <c r="A331" s="11"/>
+      <c r="B331" s="11"/>
+      <c r="C331" s="9"/>
+      <c r="D331" s="9"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="9"/>
+      <c r="G331" s="9"/>
+      <c r="H331" s="9"/>
+      <c r="I331" s="9"/>
+      <c r="J331" s="9"/>
+      <c r="K331" s="9"/>
+      <c r="L331" s="9"/>
+      <c r="M331" s="9"/>
+      <c r="N331" s="9"/>
+      <c r="O331" s="9"/>
+      <c r="P331" s="9"/>
+      <c r="Q331" s="9"/>
+      <c r="R331" s="9"/>
+      <c r="S331" s="9"/>
+      <c r="T331" s="9"/>
+      <c r="U331" s="9"/>
+      <c r="V331" s="9"/>
+      <c r="W331" s="9"/>
       <c r="X331" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="Y331" s="11"/>
-      <c r="Z331" s="11"/>
-      <c r="AA331" s="11"/>
-      <c r="AB331" s="11"/>
-      <c r="AC331" s="11"/>
-      <c r="AD331" s="11"/>
-      <c r="AE331" s="11"/>
-      <c r="AF331" s="11"/>
-      <c r="AG331" s="11"/>
-      <c r="AH331" s="11"/>
+      <c r="Y331" s="9"/>
+      <c r="Z331" s="9"/>
+      <c r="AA331" s="9"/>
+      <c r="AB331" s="9"/>
+      <c r="AC331" s="9"/>
+      <c r="AD331" s="9"/>
+      <c r="AE331" s="9"/>
+      <c r="AF331" s="9"/>
+      <c r="AG331" s="9"/>
+      <c r="AH331" s="9"/>
       <c r="AI331" t="s">
         <v>469</v>
       </c>
@@ -40808,102 +40758,102 @@
       </c>
     </row>
     <row r="383" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="10">
+      <c r="A383" s="11">
         <v>44662.533067129632</v>
       </c>
-      <c r="B383" s="10">
+      <c r="B383" s="11">
         <v>44662.547071759262</v>
       </c>
-      <c r="C383" s="11" t="s">
+      <c r="C383" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D383" s="11"/>
-      <c r="E383" s="11">
+      <c r="D383" s="9"/>
+      <c r="E383" s="9">
         <v>108035510</v>
       </c>
-      <c r="F383" s="11" t="s">
+      <c r="F383" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="G383" s="11">
+      <c r="G383" s="9">
         <v>8</v>
       </c>
-      <c r="H383" s="11">
-        <v>5</v>
-      </c>
-      <c r="I383" s="11">
-        <v>5</v>
-      </c>
-      <c r="J383" s="11">
-        <v>5</v>
-      </c>
-      <c r="K383" s="11">
-        <v>5</v>
-      </c>
-      <c r="L383" s="11">
-        <v>5</v>
-      </c>
-      <c r="M383" s="11">
-        <v>5</v>
-      </c>
-      <c r="N383" s="11">
-        <v>5</v>
-      </c>
-      <c r="O383" s="11">
-        <v>6</v>
-      </c>
-      <c r="P383" s="11">
-        <v>6</v>
-      </c>
-      <c r="Q383" s="11">
-        <v>2</v>
-      </c>
-      <c r="R383" s="11">
-        <v>1</v>
-      </c>
-      <c r="S383" s="11">
-        <v>6</v>
-      </c>
-      <c r="T383" s="11">
-        <v>6</v>
-      </c>
-      <c r="U383" s="11">
-        <v>6</v>
-      </c>
-      <c r="V383" s="11" t="s">
+      <c r="H383" s="9">
+        <v>5</v>
+      </c>
+      <c r="I383" s="9">
+        <v>5</v>
+      </c>
+      <c r="J383" s="9">
+        <v>5</v>
+      </c>
+      <c r="K383" s="9">
+        <v>5</v>
+      </c>
+      <c r="L383" s="9">
+        <v>5</v>
+      </c>
+      <c r="M383" s="9">
+        <v>5</v>
+      </c>
+      <c r="N383" s="9">
+        <v>5</v>
+      </c>
+      <c r="O383" s="9">
+        <v>6</v>
+      </c>
+      <c r="P383" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q383" s="9">
+        <v>2</v>
+      </c>
+      <c r="R383" s="9">
+        <v>1</v>
+      </c>
+      <c r="S383" s="9">
+        <v>6</v>
+      </c>
+      <c r="T383" s="9">
+        <v>6</v>
+      </c>
+      <c r="U383" s="9">
+        <v>6</v>
+      </c>
+      <c r="V383" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="W383" s="11" t="s">
+      <c r="W383" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="X383" s="13" t="s">
+      <c r="X383" s="14" t="s">
         <v>727</v>
       </c>
-      <c r="Y383" s="11" t="s">
+      <c r="Y383" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Z383" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA383" s="11" t="s">
+      <c r="Z383" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA383" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AB383" s="11" t="s">
+      <c r="AB383" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AC383" s="11" t="s">
+      <c r="AC383" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AD383" s="11" t="s">
+      <c r="AD383" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AE383" s="11" t="s">
+      <c r="AE383" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AF383" s="11"/>
-      <c r="AG383" s="11" t="s">
+      <c r="AF383" s="9"/>
+      <c r="AG383" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AH383" s="11" t="s">
+      <c r="AH383" s="9" t="s">
         <v>539</v>
       </c>
       <c r="AI383" t="s">
@@ -40911,40 +40861,40 @@
       </c>
     </row>
     <row r="384" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A384" s="10"/>
-      <c r="B384" s="10"/>
-      <c r="C384" s="11"/>
-      <c r="D384" s="11"/>
-      <c r="E384" s="11"/>
-      <c r="F384" s="11"/>
-      <c r="G384" s="11"/>
-      <c r="H384" s="11"/>
-      <c r="I384" s="11"/>
-      <c r="J384" s="11"/>
-      <c r="K384" s="11"/>
-      <c r="L384" s="11"/>
-      <c r="M384" s="11"/>
-      <c r="N384" s="11"/>
-      <c r="O384" s="11"/>
-      <c r="P384" s="11"/>
-      <c r="Q384" s="11"/>
-      <c r="R384" s="11"/>
-      <c r="S384" s="11"/>
-      <c r="T384" s="11"/>
-      <c r="U384" s="11"/>
-      <c r="V384" s="11"/>
-      <c r="W384" s="11"/>
-      <c r="X384" s="13"/>
-      <c r="Y384" s="11"/>
-      <c r="Z384" s="11"/>
-      <c r="AA384" s="11"/>
-      <c r="AB384" s="11"/>
-      <c r="AC384" s="11"/>
-      <c r="AD384" s="11"/>
-      <c r="AE384" s="11"/>
-      <c r="AF384" s="11"/>
-      <c r="AG384" s="11"/>
-      <c r="AH384" s="11"/>
+      <c r="A384" s="11"/>
+      <c r="B384" s="11"/>
+      <c r="C384" s="9"/>
+      <c r="D384" s="9"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="9"/>
+      <c r="G384" s="9"/>
+      <c r="H384" s="9"/>
+      <c r="I384" s="9"/>
+      <c r="J384" s="9"/>
+      <c r="K384" s="9"/>
+      <c r="L384" s="9"/>
+      <c r="M384" s="9"/>
+      <c r="N384" s="9"/>
+      <c r="O384" s="9"/>
+      <c r="P384" s="9"/>
+      <c r="Q384" s="9"/>
+      <c r="R384" s="9"/>
+      <c r="S384" s="9"/>
+      <c r="T384" s="9"/>
+      <c r="U384" s="9"/>
+      <c r="V384" s="9"/>
+      <c r="W384" s="9"/>
+      <c r="X384" s="14"/>
+      <c r="Y384" s="9"/>
+      <c r="Z384" s="9"/>
+      <c r="AA384" s="9"/>
+      <c r="AB384" s="9"/>
+      <c r="AC384" s="9"/>
+      <c r="AD384" s="9"/>
+      <c r="AE384" s="9"/>
+      <c r="AF384" s="9"/>
+      <c r="AG384" s="9"/>
+      <c r="AH384" s="9"/>
       <c r="AI384" t="s">
         <v>564</v>
       </c>
@@ -47846,7 +47796,7 @@
       <c r="AH451" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="AI451" s="14"/>
+      <c r="AI451" s="8"/>
     </row>
     <row r="452" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
@@ -47947,7 +47897,7 @@
       <c r="AH452" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="AI452" s="14"/>
+      <c r="AI452" s="8"/>
     </row>
     <row r="453" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A453" s="6">
@@ -48048,7 +47998,7 @@
       <c r="AH453" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="AI453" s="14"/>
+      <c r="AI453" s="8"/>
     </row>
     <row r="454" spans="1:35" ht="72" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
@@ -48149,7 +48099,7 @@
       <c r="AH454" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="AI454" s="14"/>
+      <c r="AI454" s="8"/>
     </row>
     <row r="455" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A455" s="6">
@@ -48250,7 +48200,7 @@
       <c r="AH455" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="AI455" s="14"/>
+      <c r="AI455" s="8"/>
     </row>
     <row r="456" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
@@ -48351,7 +48301,7 @@
       <c r="AH456" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="AI456" s="14"/>
+      <c r="AI456" s="8"/>
     </row>
     <row r="457" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A457" s="6">
@@ -48452,7 +48402,7 @@
       <c r="AH457" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="AI457" s="14"/>
+      <c r="AI457" s="8"/>
     </row>
     <row r="458" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
@@ -48553,7 +48503,7 @@
       <c r="AH458" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="AI458" s="14"/>
+      <c r="AI458" s="8"/>
     </row>
     <row r="459" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A459" s="6">
@@ -48654,145 +48604,145 @@
       <c r="AH459" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="AI459" s="14"/>
+      <c r="AI459" s="8"/>
     </row>
     <row r="460" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A460" s="10">
+      <c r="A460" s="11">
         <v>44685.533414351848</v>
       </c>
-      <c r="B460" s="10">
+      <c r="B460" s="11">
         <v>44685.557280092595</v>
       </c>
-      <c r="C460" s="11" t="s">
+      <c r="C460" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D460" s="11"/>
-      <c r="E460" s="11">
+      <c r="D460" s="9"/>
+      <c r="E460" s="9">
         <v>108142460</v>
       </c>
-      <c r="F460" s="11" t="s">
+      <c r="F460" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="G460" s="11">
-        <v>6</v>
-      </c>
-      <c r="H460" s="11">
+      <c r="G460" s="9">
+        <v>6</v>
+      </c>
+      <c r="H460" s="9">
         <v>0</v>
       </c>
-      <c r="I460" s="11">
-        <v>3</v>
-      </c>
-      <c r="J460" s="11">
-        <v>5</v>
-      </c>
-      <c r="K460" s="11">
-        <v>4</v>
-      </c>
-      <c r="L460" s="11">
-        <v>5</v>
-      </c>
-      <c r="M460" s="11">
-        <v>5</v>
-      </c>
-      <c r="N460" s="11">
-        <v>5</v>
-      </c>
-      <c r="O460" s="11">
-        <v>6</v>
-      </c>
-      <c r="P460" s="11">
-        <v>6</v>
-      </c>
-      <c r="Q460" s="11">
-        <v>6</v>
-      </c>
-      <c r="R460" s="11">
-        <v>1</v>
-      </c>
-      <c r="S460" s="11">
-        <v>6</v>
-      </c>
-      <c r="T460" s="11">
-        <v>4</v>
-      </c>
-      <c r="U460" s="11">
-        <v>4</v>
-      </c>
-      <c r="V460" s="11" t="s">
+      <c r="I460" s="9">
+        <v>3</v>
+      </c>
+      <c r="J460" s="9">
+        <v>5</v>
+      </c>
+      <c r="K460" s="9">
+        <v>4</v>
+      </c>
+      <c r="L460" s="9">
+        <v>5</v>
+      </c>
+      <c r="M460" s="9">
+        <v>5</v>
+      </c>
+      <c r="N460" s="9">
+        <v>5</v>
+      </c>
+      <c r="O460" s="9">
+        <v>6</v>
+      </c>
+      <c r="P460" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q460" s="9">
+        <v>6</v>
+      </c>
+      <c r="R460" s="9">
+        <v>1</v>
+      </c>
+      <c r="S460" s="9">
+        <v>6</v>
+      </c>
+      <c r="T460" s="9">
+        <v>4</v>
+      </c>
+      <c r="U460" s="9">
+        <v>4</v>
+      </c>
+      <c r="V460" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="W460" s="11" t="s">
+      <c r="W460" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="X460" s="13" t="s">
+      <c r="X460" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="Y460" s="11" t="s">
+      <c r="Y460" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Z460" s="11">
+      <c r="Z460" s="9">
         <v>0</v>
       </c>
-      <c r="AA460" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB460" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC460" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD460" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE460" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF460" s="11"/>
-      <c r="AG460" s="11" t="s">
+      <c r="AA460" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB460" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC460" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD460" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE460" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF460" s="9"/>
+      <c r="AG460" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AH460" s="11" t="s">
+      <c r="AH460" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="AI460" s="14"/>
+      <c r="AI460" s="8"/>
     </row>
     <row r="461" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A461" s="10"/>
-      <c r="B461" s="10"/>
-      <c r="C461" s="11"/>
-      <c r="D461" s="11"/>
-      <c r="E461" s="11"/>
-      <c r="F461" s="11"/>
-      <c r="G461" s="11"/>
-      <c r="H461" s="11"/>
-      <c r="I461" s="11"/>
-      <c r="J461" s="11"/>
-      <c r="K461" s="11"/>
-      <c r="L461" s="11"/>
-      <c r="M461" s="11"/>
-      <c r="N461" s="11"/>
-      <c r="O461" s="11"/>
-      <c r="P461" s="11"/>
-      <c r="Q461" s="11"/>
-      <c r="R461" s="11"/>
-      <c r="S461" s="11"/>
-      <c r="T461" s="11"/>
-      <c r="U461" s="11"/>
-      <c r="V461" s="11"/>
-      <c r="W461" s="11"/>
-      <c r="X461" s="13"/>
-      <c r="Y461" s="11"/>
-      <c r="Z461" s="11"/>
-      <c r="AA461" s="11"/>
-      <c r="AB461" s="11"/>
-      <c r="AC461" s="11"/>
-      <c r="AD461" s="11"/>
-      <c r="AE461" s="11"/>
-      <c r="AF461" s="11"/>
-      <c r="AG461" s="11"/>
-      <c r="AH461" s="11"/>
-      <c r="AI461" s="14"/>
+      <c r="A461" s="11"/>
+      <c r="B461" s="11"/>
+      <c r="C461" s="9"/>
+      <c r="D461" s="9"/>
+      <c r="E461" s="9"/>
+      <c r="F461" s="9"/>
+      <c r="G461" s="9"/>
+      <c r="H461" s="9"/>
+      <c r="I461" s="9"/>
+      <c r="J461" s="9"/>
+      <c r="K461" s="9"/>
+      <c r="L461" s="9"/>
+      <c r="M461" s="9"/>
+      <c r="N461" s="9"/>
+      <c r="O461" s="9"/>
+      <c r="P461" s="9"/>
+      <c r="Q461" s="9"/>
+      <c r="R461" s="9"/>
+      <c r="S461" s="9"/>
+      <c r="T461" s="9"/>
+      <c r="U461" s="9"/>
+      <c r="V461" s="9"/>
+      <c r="W461" s="9"/>
+      <c r="X461" s="14"/>
+      <c r="Y461" s="9"/>
+      <c r="Z461" s="9"/>
+      <c r="AA461" s="9"/>
+      <c r="AB461" s="9"/>
+      <c r="AC461" s="9"/>
+      <c r="AD461" s="9"/>
+      <c r="AE461" s="9"/>
+      <c r="AF461" s="9"/>
+      <c r="AG461" s="9"/>
+      <c r="AH461" s="9"/>
+      <c r="AI461" s="8"/>
     </row>
     <row r="462" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A462" s="6">
@@ -48893,7 +48843,7 @@
       <c r="AH462" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="AI462" s="14"/>
+      <c r="AI462" s="8"/>
     </row>
     <row r="463" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
@@ -48994,7 +48944,7 @@
       <c r="AH463" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="AI463" s="14"/>
+      <c r="AI463" s="8"/>
     </row>
     <row r="464" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A464" s="6">
@@ -49095,7 +49045,7 @@
       <c r="AH464" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="AI464" s="14"/>
+      <c r="AI464" s="8"/>
     </row>
     <row r="465" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
@@ -49196,7 +49146,7 @@
       <c r="AH465" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AI465" s="14"/>
+      <c r="AI465" s="8"/>
     </row>
     <row r="466" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A466" s="6">
@@ -49297,7 +49247,7 @@
       <c r="AH466" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="AI466" s="14"/>
+      <c r="AI466" s="8"/>
     </row>
     <row r="467" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
@@ -49398,7 +49348,7 @@
       <c r="AH467" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="AI467" s="14"/>
+      <c r="AI467" s="8"/>
     </row>
     <row r="468" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A468" s="6">
@@ -49499,7 +49449,7 @@
       <c r="AH468" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="AI468" s="14"/>
+      <c r="AI468" s="8"/>
     </row>
     <row r="469" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
@@ -49600,7 +49550,7 @@
       <c r="AH469" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="AI469" s="14"/>
+      <c r="AI469" s="8"/>
     </row>
     <row r="470" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A470" s="6">
@@ -49701,7 +49651,7 @@
       <c r="AH470" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="AI470" s="14"/>
+      <c r="AI470" s="8"/>
     </row>
     <row r="471" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
@@ -49802,7 +49752,7 @@
       <c r="AH471" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="AI471" s="14"/>
+      <c r="AI471" s="8"/>
     </row>
     <row r="472" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A472" s="6">
@@ -49903,7 +49853,7 @@
       <c r="AH472" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="AI472" s="14"/>
+      <c r="AI472" s="8"/>
     </row>
     <row r="473" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
@@ -50004,7 +49954,7 @@
       <c r="AH473" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="AI473" s="14"/>
+      <c r="AI473" s="8"/>
     </row>
     <row r="474" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A474" s="6">
@@ -50105,7 +50055,7 @@
       <c r="AH474" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="AI474" s="14"/>
+      <c r="AI474" s="8"/>
     </row>
     <row r="475" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
@@ -50206,7 +50156,7 @@
       <c r="AH475" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="AI475" s="14"/>
+      <c r="AI475" s="8"/>
     </row>
     <row r="476" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A476" s="6">
@@ -50307,7 +50257,7 @@
       <c r="AH476" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="AI476" s="14"/>
+      <c r="AI476" s="8"/>
     </row>
     <row r="477" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
@@ -50408,7 +50358,7 @@
       <c r="AH477" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="AI477" s="14"/>
+      <c r="AI477" s="8"/>
     </row>
     <row r="478" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A478" s="6">
@@ -50509,7 +50459,7 @@
       <c r="AH478" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="AI478" s="14"/>
+      <c r="AI478" s="8"/>
     </row>
     <row r="479" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
@@ -50610,7 +50560,7 @@
       <c r="AH479" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="AI479" s="14"/>
+      <c r="AI479" s="8"/>
     </row>
     <row r="480" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A480" s="6">
@@ -50711,7 +50661,7 @@
       <c r="AH480" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="AI480" s="14"/>
+      <c r="AI480" s="8"/>
     </row>
     <row r="481" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
@@ -50812,7 +50762,7 @@
       <c r="AH481" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="AI481" s="14"/>
+      <c r="AI481" s="8"/>
     </row>
     <row r="482" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A482" s="6">
@@ -50913,7 +50863,7 @@
       <c r="AH482" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="AI482" s="14"/>
+      <c r="AI482" s="8"/>
     </row>
     <row r="483" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
@@ -51014,7 +50964,7 @@
       <c r="AH483" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="AI483" s="14"/>
+      <c r="AI483" s="8"/>
     </row>
     <row r="484" spans="1:35" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A484" s="6">
@@ -51115,7 +51065,7 @@
       <c r="AH484" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="AI484" s="14"/>
+      <c r="AI484" s="8"/>
     </row>
     <row r="485" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
@@ -51216,7 +51166,7 @@
       <c r="AH485" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AI485" s="14"/>
+      <c r="AI485" s="8"/>
     </row>
     <row r="486" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A486" s="6">
@@ -51317,7 +51267,7 @@
       <c r="AH486" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="AI486" s="14"/>
+      <c r="AI486" s="8"/>
     </row>
     <row r="487" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
@@ -51418,7 +51368,7 @@
       <c r="AH487" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="AI487" s="14"/>
+      <c r="AI487" s="8"/>
     </row>
     <row r="488" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A488" s="6">
@@ -51519,7 +51469,7 @@
       <c r="AH488" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="AI488" s="14"/>
+      <c r="AI488" s="8"/>
     </row>
     <row r="489" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
@@ -51620,7 +51570,7 @@
       <c r="AH489" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="AI489" s="14"/>
+      <c r="AI489" s="8"/>
     </row>
     <row r="490" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A490" s="6">
@@ -51721,7 +51671,7 @@
       <c r="AH490" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="AI490" s="14"/>
+      <c r="AI490" s="8"/>
     </row>
     <row r="491" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
@@ -51822,7 +51772,7 @@
       <c r="AH491" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="AI491" s="14"/>
+      <c r="AI491" s="8"/>
     </row>
     <row r="492" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A492" s="6">
@@ -51923,7 +51873,7 @@
       <c r="AH492" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="AI492" s="14"/>
+      <c r="AI492" s="8"/>
     </row>
     <row r="493" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
@@ -52024,7 +51974,7 @@
       <c r="AH493" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="AI493" s="14"/>
+      <c r="AI493" s="8"/>
     </row>
     <row r="494" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A494" s="6">
@@ -52125,7 +52075,7 @@
       <c r="AH494" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="AI494" s="14"/>
+      <c r="AI494" s="8"/>
     </row>
     <row r="495" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A495" s="2">
@@ -52226,7 +52176,7 @@
       <c r="AH495" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="AI495" s="14"/>
+      <c r="AI495" s="8"/>
     </row>
     <row r="496" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A496" s="6">
@@ -52327,7 +52277,7 @@
       <c r="AH496" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="AI496" s="14"/>
+      <c r="AI496" s="8"/>
     </row>
     <row r="497" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
@@ -52428,7 +52378,7 @@
       <c r="AH497" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="AI497" s="14"/>
+      <c r="AI497" s="8"/>
     </row>
     <row r="498" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A498" s="6">
@@ -52529,7 +52479,7 @@
       <c r="AH498" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="AI498" s="14"/>
+      <c r="AI498" s="8"/>
     </row>
     <row r="499" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
@@ -52630,7 +52580,7 @@
       <c r="AH499" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="AI499" s="14"/>
+      <c r="AI499" s="8"/>
     </row>
     <row r="500" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A500" s="6">
@@ -52731,7 +52681,7 @@
       <c r="AH500" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="AI500" s="14"/>
+      <c r="AI500" s="8"/>
     </row>
     <row r="501" spans="1:35" ht="72" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
@@ -52832,7 +52782,7 @@
       <c r="AH501" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="AI501" s="14"/>
+      <c r="AI501" s="8"/>
     </row>
     <row r="502" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A502" s="6">
@@ -52933,7 +52883,7 @@
       <c r="AH502" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="AI502" s="14"/>
+      <c r="AI502" s="8"/>
     </row>
     <row r="503" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A503" s="2">
@@ -53034,7 +52984,7 @@
       <c r="AH503" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="AI503" s="14"/>
+      <c r="AI503" s="8"/>
     </row>
     <row r="504" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A504" s="6">
@@ -53135,7 +53085,7 @@
       <c r="AH504" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="AI504" s="14"/>
+      <c r="AI504" s="8"/>
     </row>
     <row r="505" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
@@ -53236,7 +53186,7 @@
       <c r="AH505" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="AI505" s="14"/>
+      <c r="AI505" s="8"/>
     </row>
     <row r="506" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A506" s="6">
@@ -53337,7 +53287,7 @@
       <c r="AH506" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="AI506" s="14"/>
+      <c r="AI506" s="8"/>
     </row>
     <row r="507" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
@@ -53438,7 +53388,7 @@
       <c r="AH507" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="AI507" s="14"/>
+      <c r="AI507" s="8"/>
     </row>
     <row r="508" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A508" s="6">
@@ -53539,7 +53489,7 @@
       <c r="AH508" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="AI508" s="14"/>
+      <c r="AI508" s="8"/>
     </row>
     <row r="509" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A509" s="2">
@@ -53640,145 +53590,145 @@
       <c r="AH509" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="AI509" s="14"/>
+      <c r="AI509" s="8"/>
     </row>
     <row r="510" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A510" s="8">
+      <c r="A510" s="13">
         <v>44701.539571759262</v>
       </c>
-      <c r="B510" s="8">
+      <c r="B510" s="13">
         <v>44701.559259259258</v>
       </c>
-      <c r="C510" s="9" t="s">
+      <c r="C510" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D510" s="9"/>
-      <c r="E510" s="9">
+      <c r="D510" s="10"/>
+      <c r="E510" s="10">
         <v>108062227</v>
       </c>
-      <c r="F510" s="9" t="s">
+      <c r="F510" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="G510" s="9">
-        <v>6</v>
-      </c>
-      <c r="H510" s="9">
-        <v>4</v>
-      </c>
-      <c r="I510" s="9">
-        <v>1</v>
-      </c>
-      <c r="J510" s="9">
-        <v>5</v>
-      </c>
-      <c r="K510" s="9">
-        <v>4</v>
-      </c>
-      <c r="L510" s="9">
-        <v>5</v>
-      </c>
-      <c r="M510" s="9">
-        <v>3</v>
-      </c>
-      <c r="N510" s="9">
-        <v>3</v>
-      </c>
-      <c r="O510" s="9">
-        <v>5</v>
-      </c>
-      <c r="P510" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q510" s="9">
-        <v>6</v>
-      </c>
-      <c r="R510" s="9">
-        <v>5</v>
-      </c>
-      <c r="S510" s="9">
-        <v>6</v>
-      </c>
-      <c r="T510" s="9">
-        <v>5</v>
-      </c>
-      <c r="U510" s="9">
-        <v>5</v>
-      </c>
-      <c r="V510" s="9" t="s">
+      <c r="G510" s="10">
+        <v>6</v>
+      </c>
+      <c r="H510" s="10">
+        <v>4</v>
+      </c>
+      <c r="I510" s="10">
+        <v>1</v>
+      </c>
+      <c r="J510" s="10">
+        <v>5</v>
+      </c>
+      <c r="K510" s="10">
+        <v>4</v>
+      </c>
+      <c r="L510" s="10">
+        <v>5</v>
+      </c>
+      <c r="M510" s="10">
+        <v>3</v>
+      </c>
+      <c r="N510" s="10">
+        <v>3</v>
+      </c>
+      <c r="O510" s="10">
+        <v>5</v>
+      </c>
+      <c r="P510" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q510" s="10">
+        <v>6</v>
+      </c>
+      <c r="R510" s="10">
+        <v>5</v>
+      </c>
+      <c r="S510" s="10">
+        <v>6</v>
+      </c>
+      <c r="T510" s="10">
+        <v>5</v>
+      </c>
+      <c r="U510" s="10">
+        <v>5</v>
+      </c>
+      <c r="V510" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="W510" s="9" t="s">
+      <c r="W510" s="10" t="s">
         <v>52</v>
       </c>
       <c r="X510" s="12" t="s">
         <v>822</v>
       </c>
-      <c r="Y510" s="9" t="s">
+      <c r="Y510" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Z510" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA510" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB510" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC510" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD510" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE510" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF510" s="9"/>
-      <c r="AG510" s="9" t="s">
+      <c r="Z510" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA510" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB510" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC510" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD510" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE510" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF510" s="10"/>
+      <c r="AG510" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AH510" s="9" t="s">
+      <c r="AH510" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="AI510" s="14"/>
+      <c r="AI510" s="8"/>
     </row>
     <row r="511" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A511" s="8"/>
-      <c r="B511" s="8"/>
-      <c r="C511" s="9"/>
-      <c r="D511" s="9"/>
-      <c r="E511" s="9"/>
-      <c r="F511" s="9"/>
-      <c r="G511" s="9"/>
-      <c r="H511" s="9"/>
-      <c r="I511" s="9"/>
-      <c r="J511" s="9"/>
-      <c r="K511" s="9"/>
-      <c r="L511" s="9"/>
-      <c r="M511" s="9"/>
-      <c r="N511" s="9"/>
-      <c r="O511" s="9"/>
-      <c r="P511" s="9"/>
-      <c r="Q511" s="9"/>
-      <c r="R511" s="9"/>
-      <c r="S511" s="9"/>
-      <c r="T511" s="9"/>
-      <c r="U511" s="9"/>
-      <c r="V511" s="9"/>
-      <c r="W511" s="9"/>
+      <c r="A511" s="13"/>
+      <c r="B511" s="13"/>
+      <c r="C511" s="10"/>
+      <c r="D511" s="10"/>
+      <c r="E511" s="10"/>
+      <c r="F511" s="10"/>
+      <c r="G511" s="10"/>
+      <c r="H511" s="10"/>
+      <c r="I511" s="10"/>
+      <c r="J511" s="10"/>
+      <c r="K511" s="10"/>
+      <c r="L511" s="10"/>
+      <c r="M511" s="10"/>
+      <c r="N511" s="10"/>
+      <c r="O511" s="10"/>
+      <c r="P511" s="10"/>
+      <c r="Q511" s="10"/>
+      <c r="R511" s="10"/>
+      <c r="S511" s="10"/>
+      <c r="T511" s="10"/>
+      <c r="U511" s="10"/>
+      <c r="V511" s="10"/>
+      <c r="W511" s="10"/>
       <c r="X511" s="12"/>
-      <c r="Y511" s="9"/>
-      <c r="Z511" s="9"/>
-      <c r="AA511" s="9"/>
-      <c r="AB511" s="9"/>
-      <c r="AC511" s="9"/>
-      <c r="AD511" s="9"/>
-      <c r="AE511" s="9"/>
-      <c r="AF511" s="9"/>
-      <c r="AG511" s="9"/>
-      <c r="AH511" s="9"/>
-      <c r="AI511" s="14"/>
+      <c r="Y511" s="10"/>
+      <c r="Z511" s="10"/>
+      <c r="AA511" s="10"/>
+      <c r="AB511" s="10"/>
+      <c r="AC511" s="10"/>
+      <c r="AD511" s="10"/>
+      <c r="AE511" s="10"/>
+      <c r="AF511" s="10"/>
+      <c r="AG511" s="10"/>
+      <c r="AH511" s="10"/>
+      <c r="AI511" s="8"/>
     </row>
     <row r="512" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
@@ -53879,7 +53829,7 @@
       <c r="AH512" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="AI512" s="14"/>
+      <c r="AI512" s="8"/>
     </row>
     <row r="513" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A513" s="6">
@@ -53980,7 +53930,7 @@
       <c r="AH513" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="AI513" s="14"/>
+      <c r="AI513" s="8"/>
     </row>
     <row r="514" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A514" s="2">
@@ -54081,7 +54031,7 @@
       <c r="AH514" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="AI514" s="14"/>
+      <c r="AI514" s="8"/>
     </row>
     <row r="515" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A515" s="6">
@@ -54182,7 +54132,7 @@
       <c r="AH515" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="AI515" s="14"/>
+      <c r="AI515" s="8"/>
     </row>
     <row r="516" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A516" s="2">
@@ -54283,7 +54233,7 @@
       <c r="AH516" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="AI516" s="14"/>
+      <c r="AI516" s="8"/>
     </row>
     <row r="517" spans="1:35" ht="72" x14ac:dyDescent="0.3">
       <c r="A517" s="6">
@@ -54384,7 +54334,7 @@
       <c r="AH517" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="AI517" s="14"/>
+      <c r="AI517" s="8"/>
     </row>
     <row r="518" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
@@ -54485,7 +54435,7 @@
       <c r="AH518" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="AI518" s="14"/>
+      <c r="AI518" s="8"/>
     </row>
     <row r="519" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A519" s="6">
@@ -54586,7 +54536,7 @@
       <c r="AH519" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="AI519" s="14"/>
+      <c r="AI519" s="8"/>
     </row>
     <row r="520" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
@@ -54687,7 +54637,7 @@
       <c r="AH520" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="AI520" s="14"/>
+      <c r="AI520" s="8"/>
     </row>
     <row r="521" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A521" s="6">
@@ -54788,7 +54738,7 @@
       <c r="AH521" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="AI521" s="14"/>
+      <c r="AI521" s="8"/>
     </row>
     <row r="522" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
@@ -54889,7 +54839,7 @@
       <c r="AH522" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="AI522" s="14"/>
+      <c r="AI522" s="8"/>
     </row>
     <row r="523" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A523" s="6">
@@ -54990,7 +54940,7 @@
       <c r="AH523" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="AI523" s="14"/>
+      <c r="AI523" s="8"/>
     </row>
     <row r="524" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A524" s="2">
@@ -55091,7 +55041,7 @@
       <c r="AH524" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="AI524" s="14"/>
+      <c r="AI524" s="8"/>
     </row>
     <row r="525" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A525" s="6">
@@ -55192,7 +55142,7 @@
       <c r="AH525" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="AI525" s="14"/>
+      <c r="AI525" s="8"/>
     </row>
     <row r="526" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A526" s="2">
@@ -55293,7 +55243,7 @@
       <c r="AH526" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="AI526" s="14"/>
+      <c r="AI526" s="8"/>
     </row>
     <row r="527" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A527" s="6">
@@ -55394,7 +55344,7 @@
       <c r="AH527" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="AI527" s="14"/>
+      <c r="AI527" s="8"/>
     </row>
     <row r="528" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
@@ -55495,7 +55445,7 @@
       <c r="AH528" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="AI528" s="14"/>
+      <c r="AI528" s="8"/>
     </row>
     <row r="529" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A529" s="6">
@@ -55596,7 +55546,7 @@
       <c r="AH529" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="AI529" s="14"/>
+      <c r="AI529" s="8"/>
     </row>
     <row r="530" spans="1:35" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A530" s="2">
@@ -55697,7 +55647,7 @@
       <c r="AH530" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="AI530" s="14"/>
+      <c r="AI530" s="8"/>
     </row>
     <row r="531" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A531" s="6">
@@ -55798,7 +55748,7 @@
       <c r="AH531" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="AI531" s="14"/>
+      <c r="AI531" s="8"/>
     </row>
     <row r="532" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A532" s="2">
@@ -55899,7 +55849,7 @@
       <c r="AH532" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="AI532" s="14"/>
+      <c r="AI532" s="8"/>
     </row>
     <row r="533" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A533" s="6">
@@ -56000,7 +55950,7 @@
       <c r="AH533" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="AI533" s="14"/>
+      <c r="AI533" s="8"/>
     </row>
     <row r="534" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A534" s="2">
@@ -56101,7 +56051,7 @@
       <c r="AH534" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="AI534" s="14"/>
+      <c r="AI534" s="8"/>
     </row>
     <row r="535" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A535" s="6">
@@ -56202,7 +56152,7 @@
       <c r="AH535" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="AI535" s="14"/>
+      <c r="AI535" s="8"/>
     </row>
     <row r="536" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A536" s="2">
@@ -56303,7 +56253,7 @@
       <c r="AH536" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="AI536" s="14"/>
+      <c r="AI536" s="8"/>
     </row>
     <row r="537" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A537" s="6">
@@ -56404,7 +56354,7 @@
       <c r="AH537" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="AI537" s="14"/>
+      <c r="AI537" s="8"/>
     </row>
     <row r="538" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A538" s="2">
@@ -56505,7 +56455,7 @@
       <c r="AH538" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="AI538" s="14"/>
+      <c r="AI538" s="8"/>
     </row>
     <row r="539" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A539" s="6">
@@ -56606,7 +56556,7 @@
       <c r="AH539" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="AI539" s="14"/>
+      <c r="AI539" s="8"/>
     </row>
     <row r="540" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A540" s="2">
@@ -56707,7 +56657,7 @@
       <c r="AH540" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="AI540" s="14"/>
+      <c r="AI540" s="8"/>
     </row>
     <row r="541" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A541" s="6">
@@ -56808,7 +56758,7 @@
       <c r="AH541" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="AI541" s="14"/>
+      <c r="AI541" s="8"/>
     </row>
     <row r="542" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
@@ -56909,7 +56859,7 @@
       <c r="AH542" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="AI542" s="14"/>
+      <c r="AI542" s="8"/>
     </row>
     <row r="543" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A543" s="6">
@@ -57010,7 +56960,7 @@
       <c r="AH543" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="AI543" s="14"/>
+      <c r="AI543" s="8"/>
     </row>
     <row r="544" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
@@ -57111,7 +57061,7 @@
       <c r="AH544" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="AI544" s="14"/>
+      <c r="AI544" s="8"/>
     </row>
     <row r="545" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A545" s="6">
@@ -57212,7 +57162,7 @@
       <c r="AH545" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="AI545" s="14"/>
+      <c r="AI545" s="8"/>
     </row>
     <row r="546" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
@@ -57313,7 +57263,7 @@
       <c r="AH546" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="AI546" s="14"/>
+      <c r="AI546" s="8"/>
     </row>
     <row r="547" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A547" s="6">
@@ -57414,7 +57364,7 @@
       <c r="AH547" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="AI547" s="14"/>
+      <c r="AI547" s="8"/>
     </row>
     <row r="548" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A548" s="2">
@@ -57515,7 +57465,7 @@
       <c r="AH548" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="AI548" s="14"/>
+      <c r="AI548" s="8"/>
     </row>
     <row r="549" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A549" s="6">
@@ -57616,7 +57566,7 @@
       <c r="AH549" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="AI549" s="14"/>
+      <c r="AI549" s="8"/>
     </row>
     <row r="550" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A550" s="2">
@@ -57717,7 +57667,7 @@
       <c r="AH550" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="AI550" s="14"/>
+      <c r="AI550" s="8"/>
     </row>
     <row r="551" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A551" s="6">
@@ -57818,7 +57768,7 @@
       <c r="AH551" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="AI551" s="14"/>
+      <c r="AI551" s="8"/>
     </row>
     <row r="552" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
@@ -57919,7 +57869,7 @@
       <c r="AH552" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="AI552" s="14"/>
+      <c r="AI552" s="8"/>
     </row>
     <row r="553" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A553" s="6">
@@ -58020,147 +57970,147 @@
       <c r="AH553" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="AI553" s="14"/>
+      <c r="AI553" s="8"/>
     </row>
     <row r="554" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A554" s="10">
+      <c r="A554" s="11">
         <v>44704.348194444443</v>
       </c>
-      <c r="B554" s="10">
+      <c r="B554" s="11">
         <v>44704.352175925924</v>
       </c>
-      <c r="C554" s="11" t="s">
+      <c r="C554" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D554" s="11"/>
-      <c r="E554" s="11">
+      <c r="D554" s="9"/>
+      <c r="E554" s="9">
         <v>108104022</v>
       </c>
-      <c r="F554" s="11" t="s">
+      <c r="F554" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="G554" s="11">
+      <c r="G554" s="9">
         <v>7</v>
       </c>
-      <c r="H554" s="11">
+      <c r="H554" s="9">
         <v>0</v>
       </c>
-      <c r="I554" s="11">
-        <v>3</v>
-      </c>
-      <c r="J554" s="11">
-        <v>5</v>
-      </c>
-      <c r="K554" s="11">
-        <v>2</v>
-      </c>
-      <c r="L554" s="11">
-        <v>3</v>
-      </c>
-      <c r="M554" s="11">
-        <v>2</v>
-      </c>
-      <c r="N554" s="11">
-        <v>1</v>
-      </c>
-      <c r="O554" s="11">
-        <v>3</v>
-      </c>
-      <c r="P554" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q554" s="11">
-        <v>6</v>
-      </c>
-      <c r="R554" s="11">
-        <v>4</v>
-      </c>
-      <c r="S554" s="11">
-        <v>3</v>
-      </c>
-      <c r="T554" s="11">
-        <v>3</v>
-      </c>
-      <c r="U554" s="11">
-        <v>2</v>
-      </c>
-      <c r="V554" s="11" t="s">
+      <c r="I554" s="9">
+        <v>3</v>
+      </c>
+      <c r="J554" s="9">
+        <v>5</v>
+      </c>
+      <c r="K554" s="9">
+        <v>2</v>
+      </c>
+      <c r="L554" s="9">
+        <v>3</v>
+      </c>
+      <c r="M554" s="9">
+        <v>2</v>
+      </c>
+      <c r="N554" s="9">
+        <v>1</v>
+      </c>
+      <c r="O554" s="9">
+        <v>3</v>
+      </c>
+      <c r="P554" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q554" s="9">
+        <v>6</v>
+      </c>
+      <c r="R554" s="9">
+        <v>4</v>
+      </c>
+      <c r="S554" s="9">
+        <v>3</v>
+      </c>
+      <c r="T554" s="9">
+        <v>3</v>
+      </c>
+      <c r="U554" s="9">
+        <v>2</v>
+      </c>
+      <c r="V554" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="W554" s="11" t="s">
+      <c r="W554" s="9" t="s">
         <v>67</v>
       </c>
       <c r="X554" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="Y554" s="11" t="s">
+      <c r="Y554" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Z554" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA554" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB554" s="11" t="s">
+      <c r="Z554" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA554" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB554" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AC554" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD554" s="11" t="s">
+      <c r="AC554" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD554" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AE554" s="11" t="s">
+      <c r="AE554" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AF554" s="11"/>
-      <c r="AG554" s="11" t="s">
+      <c r="AF554" s="9"/>
+      <c r="AG554" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AH554" s="11" t="s">
+      <c r="AH554" s="9" t="s">
         <v>902</v>
       </c>
-      <c r="AI554" s="14"/>
+      <c r="AI554" s="8"/>
     </row>
     <row r="555" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A555" s="10"/>
-      <c r="B555" s="10"/>
-      <c r="C555" s="11"/>
-      <c r="D555" s="11"/>
-      <c r="E555" s="11"/>
-      <c r="F555" s="11"/>
-      <c r="G555" s="11"/>
-      <c r="H555" s="11"/>
-      <c r="I555" s="11"/>
-      <c r="J555" s="11"/>
-      <c r="K555" s="11"/>
-      <c r="L555" s="11"/>
-      <c r="M555" s="11"/>
-      <c r="N555" s="11"/>
-      <c r="O555" s="11"/>
-      <c r="P555" s="11"/>
-      <c r="Q555" s="11"/>
-      <c r="R555" s="11"/>
-      <c r="S555" s="11"/>
-      <c r="T555" s="11"/>
-      <c r="U555" s="11"/>
-      <c r="V555" s="11"/>
-      <c r="W555" s="11"/>
+      <c r="A555" s="11"/>
+      <c r="B555" s="11"/>
+      <c r="C555" s="9"/>
+      <c r="D555" s="9"/>
+      <c r="E555" s="9"/>
+      <c r="F555" s="9"/>
+      <c r="G555" s="9"/>
+      <c r="H555" s="9"/>
+      <c r="I555" s="9"/>
+      <c r="J555" s="9"/>
+      <c r="K555" s="9"/>
+      <c r="L555" s="9"/>
+      <c r="M555" s="9"/>
+      <c r="N555" s="9"/>
+      <c r="O555" s="9"/>
+      <c r="P555" s="9"/>
+      <c r="Q555" s="9"/>
+      <c r="R555" s="9"/>
+      <c r="S555" s="9"/>
+      <c r="T555" s="9"/>
+      <c r="U555" s="9"/>
+      <c r="V555" s="9"/>
+      <c r="W555" s="9"/>
       <c r="X555" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="Y555" s="11"/>
-      <c r="Z555" s="11"/>
-      <c r="AA555" s="11"/>
-      <c r="AB555" s="11"/>
-      <c r="AC555" s="11"/>
-      <c r="AD555" s="11"/>
-      <c r="AE555" s="11"/>
-      <c r="AF555" s="11"/>
-      <c r="AG555" s="11"/>
-      <c r="AH555" s="11"/>
-      <c r="AI555" s="14"/>
+      <c r="Y555" s="9"/>
+      <c r="Z555" s="9"/>
+      <c r="AA555" s="9"/>
+      <c r="AB555" s="9"/>
+      <c r="AC555" s="9"/>
+      <c r="AD555" s="9"/>
+      <c r="AE555" s="9"/>
+      <c r="AF555" s="9"/>
+      <c r="AG555" s="9"/>
+      <c r="AH555" s="9"/>
+      <c r="AI555" s="8"/>
     </row>
     <row r="556" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A556" s="6">
@@ -58261,7 +58211,7 @@
       <c r="AH556" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="AI556" s="14"/>
+      <c r="AI556" s="8"/>
     </row>
     <row r="557" spans="1:35" ht="72" x14ac:dyDescent="0.3">
       <c r="A557" s="2">
@@ -58362,7 +58312,7 @@
       <c r="AH557" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="AI557" s="14"/>
+      <c r="AI557" s="8"/>
     </row>
     <row r="558" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A558" s="6">
@@ -58463,7 +58413,7 @@
       <c r="AH558" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="AI558" s="14"/>
+      <c r="AI558" s="8"/>
     </row>
     <row r="559" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A559" s="2">
@@ -58564,7 +58514,7 @@
       <c r="AH559" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="AI559" s="14"/>
+      <c r="AI559" s="8"/>
     </row>
     <row r="560" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A560" s="6">
@@ -58665,7 +58615,7 @@
       <c r="AH560" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="AI560" s="14"/>
+      <c r="AI560" s="8"/>
     </row>
     <row r="561" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A561" s="2">
@@ -58766,7 +58716,7 @@
       <c r="AH561" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="AI561" s="14"/>
+      <c r="AI561" s="8"/>
     </row>
     <row r="562" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A562" s="6">
@@ -58867,7 +58817,7 @@
       <c r="AH562" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="AI562" s="14"/>
+      <c r="AI562" s="8"/>
     </row>
     <row r="563" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A563" s="2">
@@ -58968,7 +58918,7 @@
       <c r="AH563" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="AI563" s="14"/>
+      <c r="AI563" s="8"/>
     </row>
     <row r="564" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A564" s="6">
@@ -59069,7 +59019,7 @@
       <c r="AH564" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="AI564" s="14"/>
+      <c r="AI564" s="8"/>
     </row>
     <row r="565" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A565" s="2">
@@ -59170,7 +59120,7 @@
       <c r="AH565" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="AI565" s="14"/>
+      <c r="AI565" s="8"/>
     </row>
     <row r="566" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A566" s="6">
@@ -59271,7 +59221,7 @@
       <c r="AH566" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="AI566" s="14"/>
+      <c r="AI566" s="8"/>
     </row>
     <row r="567" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A567" s="2">
@@ -59372,7 +59322,7 @@
       <c r="AH567" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="AI567" s="14"/>
+      <c r="AI567" s="8"/>
     </row>
     <row r="568" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A568" s="6">
@@ -59473,7 +59423,7 @@
       <c r="AH568" s="4" t="s">
         <v>925</v>
       </c>
-      <c r="AI568" s="14"/>
+      <c r="AI568" s="8"/>
     </row>
     <row r="569" spans="1:35" ht="72" x14ac:dyDescent="0.3">
       <c r="A569" s="2">
@@ -59574,7 +59524,7 @@
       <c r="AH569" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="AI569" s="14"/>
+      <c r="AI569" s="8"/>
     </row>
     <row r="570" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A570" s="6">
@@ -59675,7 +59625,7 @@
       <c r="AH570" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="AI570" s="14"/>
+      <c r="AI570" s="8"/>
     </row>
     <row r="571" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A571" s="2">
@@ -59776,7 +59726,7 @@
       <c r="AH571" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="AI571" s="14"/>
+      <c r="AI571" s="8"/>
     </row>
     <row r="572" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A572" s="6">
@@ -59877,34 +59827,396 @@
       <c r="AH572" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="AI572" s="14"/>
+      <c r="AI572" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="434">
-    <mergeCell ref="AC554:AC555"/>
-    <mergeCell ref="AD554:AD555"/>
-    <mergeCell ref="AE554:AE555"/>
-    <mergeCell ref="AF554:AF555"/>
-    <mergeCell ref="AG554:AG555"/>
-    <mergeCell ref="AH554:AH555"/>
-    <mergeCell ref="V554:V555"/>
-    <mergeCell ref="W554:W555"/>
-    <mergeCell ref="Y554:Y555"/>
-    <mergeCell ref="Z554:Z555"/>
-    <mergeCell ref="AA554:AA555"/>
-    <mergeCell ref="AB554:AB555"/>
-    <mergeCell ref="P554:P555"/>
-    <mergeCell ref="Q554:Q555"/>
-    <mergeCell ref="R554:R555"/>
-    <mergeCell ref="S554:S555"/>
-    <mergeCell ref="T554:T555"/>
-    <mergeCell ref="U554:U555"/>
-    <mergeCell ref="J554:J555"/>
-    <mergeCell ref="K554:K555"/>
-    <mergeCell ref="L554:L555"/>
-    <mergeCell ref="M554:M555"/>
-    <mergeCell ref="N554:N555"/>
-    <mergeCell ref="O554:O555"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="AF63:AF64"/>
+    <mergeCell ref="AG63:AG64"/>
+    <mergeCell ref="AH63:AH64"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="Z63:Z64"/>
+    <mergeCell ref="AA63:AA64"/>
+    <mergeCell ref="AB63:AB64"/>
+    <mergeCell ref="AC63:AC64"/>
+    <mergeCell ref="AD63:AD64"/>
+    <mergeCell ref="AE63:AE64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="V63:V64"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="Y63:Y64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="P68:P70"/>
+    <mergeCell ref="Q68:Q70"/>
+    <mergeCell ref="R68:R70"/>
+    <mergeCell ref="S68:S70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="AG68:AG70"/>
+    <mergeCell ref="AH68:AH70"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="AA68:AA70"/>
+    <mergeCell ref="AB68:AB70"/>
+    <mergeCell ref="AC68:AC70"/>
+    <mergeCell ref="AD68:AD70"/>
+    <mergeCell ref="AE68:AE70"/>
+    <mergeCell ref="AF68:AF70"/>
+    <mergeCell ref="T68:T70"/>
+    <mergeCell ref="U68:U70"/>
+    <mergeCell ref="V68:V70"/>
+    <mergeCell ref="W68:W70"/>
+    <mergeCell ref="Y68:Y70"/>
+    <mergeCell ref="Z68:Z70"/>
+    <mergeCell ref="N68:N70"/>
+    <mergeCell ref="O68:O70"/>
+    <mergeCell ref="Q81:Q83"/>
+    <mergeCell ref="R81:R83"/>
+    <mergeCell ref="S81:S83"/>
+    <mergeCell ref="T81:T83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="L81:L83"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="N81:N83"/>
+    <mergeCell ref="AH81:AH83"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="E120:E122"/>
+    <mergeCell ref="F120:F122"/>
+    <mergeCell ref="G120:G122"/>
+    <mergeCell ref="H120:H122"/>
+    <mergeCell ref="I120:I122"/>
+    <mergeCell ref="AB81:AB83"/>
+    <mergeCell ref="AC81:AC83"/>
+    <mergeCell ref="AD81:AD83"/>
+    <mergeCell ref="AE81:AE83"/>
+    <mergeCell ref="AF81:AF83"/>
+    <mergeCell ref="AG81:AG83"/>
+    <mergeCell ref="U81:U83"/>
+    <mergeCell ref="V81:V83"/>
+    <mergeCell ref="W81:W83"/>
+    <mergeCell ref="Y81:Y83"/>
+    <mergeCell ref="Z81:Z83"/>
+    <mergeCell ref="AA81:AA83"/>
+    <mergeCell ref="O81:O83"/>
+    <mergeCell ref="P81:P83"/>
+    <mergeCell ref="AF120:AF122"/>
+    <mergeCell ref="AG120:AG122"/>
+    <mergeCell ref="AH120:AH122"/>
+    <mergeCell ref="V120:V122"/>
+    <mergeCell ref="W120:W122"/>
+    <mergeCell ref="Y120:Y122"/>
+    <mergeCell ref="Z120:Z122"/>
+    <mergeCell ref="AA120:AA122"/>
+    <mergeCell ref="AB120:AB122"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="F130:F132"/>
+    <mergeCell ref="AC120:AC122"/>
+    <mergeCell ref="AD120:AD122"/>
+    <mergeCell ref="AE120:AE122"/>
+    <mergeCell ref="P120:P122"/>
+    <mergeCell ref="Q120:Q122"/>
+    <mergeCell ref="R120:R122"/>
+    <mergeCell ref="S120:S122"/>
+    <mergeCell ref="T120:T122"/>
+    <mergeCell ref="U120:U122"/>
+    <mergeCell ref="J120:J122"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="L120:L122"/>
+    <mergeCell ref="M120:M122"/>
+    <mergeCell ref="N120:N122"/>
+    <mergeCell ref="O120:O122"/>
+    <mergeCell ref="O130:O132"/>
+    <mergeCell ref="P130:P132"/>
+    <mergeCell ref="Q130:Q132"/>
+    <mergeCell ref="R130:R132"/>
+    <mergeCell ref="G130:G132"/>
+    <mergeCell ref="H130:H132"/>
+    <mergeCell ref="I130:I132"/>
+    <mergeCell ref="J130:J132"/>
+    <mergeCell ref="K130:K132"/>
+    <mergeCell ref="L130:L132"/>
+    <mergeCell ref="AF130:AF132"/>
+    <mergeCell ref="AG130:AG132"/>
+    <mergeCell ref="AH130:AH132"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="Z130:Z132"/>
+    <mergeCell ref="AA130:AA132"/>
+    <mergeCell ref="AB130:AB132"/>
+    <mergeCell ref="AC130:AC132"/>
+    <mergeCell ref="AD130:AD132"/>
+    <mergeCell ref="AE130:AE132"/>
+    <mergeCell ref="S130:S132"/>
+    <mergeCell ref="T130:T132"/>
+    <mergeCell ref="U130:U132"/>
+    <mergeCell ref="V130:V132"/>
+    <mergeCell ref="W130:W132"/>
+    <mergeCell ref="Y130:Y132"/>
+    <mergeCell ref="M130:M132"/>
+    <mergeCell ref="N130:N132"/>
+    <mergeCell ref="P138:P139"/>
+    <mergeCell ref="Q138:Q139"/>
+    <mergeCell ref="R138:R139"/>
+    <mergeCell ref="S138:S139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="L138:L139"/>
+    <mergeCell ref="M138:M139"/>
+    <mergeCell ref="AF138:AF139"/>
+    <mergeCell ref="AG138:AG139"/>
+    <mergeCell ref="AH138:AH139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="Z138:Z139"/>
+    <mergeCell ref="AA138:AA139"/>
+    <mergeCell ref="AB138:AB139"/>
+    <mergeCell ref="AC138:AC139"/>
+    <mergeCell ref="AD138:AD139"/>
+    <mergeCell ref="AE138:AE139"/>
+    <mergeCell ref="T138:T139"/>
+    <mergeCell ref="U138:U139"/>
+    <mergeCell ref="V138:V139"/>
+    <mergeCell ref="W138:W139"/>
+    <mergeCell ref="X138:X139"/>
+    <mergeCell ref="Y138:Y139"/>
+    <mergeCell ref="N138:N139"/>
+    <mergeCell ref="O138:O139"/>
+    <mergeCell ref="P140:P141"/>
+    <mergeCell ref="Q140:Q141"/>
+    <mergeCell ref="R140:R141"/>
+    <mergeCell ref="S140:S141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="L140:L141"/>
+    <mergeCell ref="M140:M141"/>
+    <mergeCell ref="AG140:AG141"/>
+    <mergeCell ref="AH140:AH141"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="E292:E293"/>
+    <mergeCell ref="F292:F293"/>
+    <mergeCell ref="G292:G293"/>
+    <mergeCell ref="H292:H293"/>
+    <mergeCell ref="AA140:AA141"/>
+    <mergeCell ref="AB140:AB141"/>
+    <mergeCell ref="AC140:AC141"/>
+    <mergeCell ref="AD140:AD141"/>
+    <mergeCell ref="AE140:AE141"/>
+    <mergeCell ref="AF140:AF141"/>
+    <mergeCell ref="T140:T141"/>
+    <mergeCell ref="U140:U141"/>
+    <mergeCell ref="V140:V141"/>
+    <mergeCell ref="W140:W141"/>
+    <mergeCell ref="Y140:Y141"/>
+    <mergeCell ref="Z140:Z141"/>
+    <mergeCell ref="N140:N141"/>
+    <mergeCell ref="O140:O141"/>
+    <mergeCell ref="Q292:Q293"/>
+    <mergeCell ref="R292:R293"/>
+    <mergeCell ref="S292:S293"/>
+    <mergeCell ref="T292:T293"/>
+    <mergeCell ref="I292:I293"/>
+    <mergeCell ref="J292:J293"/>
+    <mergeCell ref="K292:K293"/>
+    <mergeCell ref="L292:L293"/>
+    <mergeCell ref="M292:M293"/>
+    <mergeCell ref="N292:N293"/>
+    <mergeCell ref="AG292:AG293"/>
+    <mergeCell ref="AH292:AH293"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="D330:D331"/>
+    <mergeCell ref="E330:E331"/>
+    <mergeCell ref="F330:F331"/>
+    <mergeCell ref="G330:G331"/>
+    <mergeCell ref="H330:H331"/>
+    <mergeCell ref="AA292:AA293"/>
+    <mergeCell ref="AB292:AB293"/>
+    <mergeCell ref="AC292:AC293"/>
+    <mergeCell ref="AD292:AD293"/>
+    <mergeCell ref="AE292:AE293"/>
+    <mergeCell ref="AF292:AF293"/>
+    <mergeCell ref="U292:U293"/>
+    <mergeCell ref="V292:V293"/>
+    <mergeCell ref="W292:W293"/>
+    <mergeCell ref="X292:X293"/>
+    <mergeCell ref="Y292:Y293"/>
+    <mergeCell ref="Z292:Z293"/>
+    <mergeCell ref="O292:O293"/>
+    <mergeCell ref="P292:P293"/>
+    <mergeCell ref="Q330:Q331"/>
+    <mergeCell ref="R330:R331"/>
+    <mergeCell ref="S330:S331"/>
+    <mergeCell ref="T330:T331"/>
+    <mergeCell ref="I330:I331"/>
+    <mergeCell ref="J330:J331"/>
+    <mergeCell ref="K330:K331"/>
+    <mergeCell ref="L330:L331"/>
+    <mergeCell ref="M330:M331"/>
+    <mergeCell ref="N330:N331"/>
+    <mergeCell ref="AH330:AH331"/>
+    <mergeCell ref="A383:A384"/>
+    <mergeCell ref="B383:B384"/>
+    <mergeCell ref="C383:C384"/>
+    <mergeCell ref="D383:D384"/>
+    <mergeCell ref="E383:E384"/>
+    <mergeCell ref="F383:F384"/>
+    <mergeCell ref="G383:G384"/>
+    <mergeCell ref="H383:H384"/>
+    <mergeCell ref="I383:I384"/>
+    <mergeCell ref="AB330:AB331"/>
+    <mergeCell ref="AC330:AC331"/>
+    <mergeCell ref="AD330:AD331"/>
+    <mergeCell ref="AE330:AE331"/>
+    <mergeCell ref="AF330:AF331"/>
+    <mergeCell ref="AG330:AG331"/>
+    <mergeCell ref="U330:U331"/>
+    <mergeCell ref="V330:V331"/>
+    <mergeCell ref="W330:W331"/>
+    <mergeCell ref="Y330:Y331"/>
+    <mergeCell ref="Z330:Z331"/>
+    <mergeCell ref="AA330:AA331"/>
+    <mergeCell ref="O330:O331"/>
+    <mergeCell ref="P330:P331"/>
+    <mergeCell ref="R383:R384"/>
+    <mergeCell ref="S383:S384"/>
+    <mergeCell ref="T383:T384"/>
+    <mergeCell ref="U383:U384"/>
+    <mergeCell ref="J383:J384"/>
+    <mergeCell ref="K383:K384"/>
+    <mergeCell ref="L383:L384"/>
+    <mergeCell ref="M383:M384"/>
+    <mergeCell ref="N383:N384"/>
+    <mergeCell ref="O383:O384"/>
+    <mergeCell ref="AH383:AH384"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="E460:E461"/>
+    <mergeCell ref="F460:F461"/>
+    <mergeCell ref="G460:G461"/>
+    <mergeCell ref="H460:H461"/>
+    <mergeCell ref="I460:I461"/>
+    <mergeCell ref="AB383:AB384"/>
+    <mergeCell ref="AC383:AC384"/>
+    <mergeCell ref="AD383:AD384"/>
+    <mergeCell ref="AE383:AE384"/>
+    <mergeCell ref="AF383:AF384"/>
+    <mergeCell ref="AG383:AG384"/>
+    <mergeCell ref="V383:V384"/>
+    <mergeCell ref="W383:W384"/>
+    <mergeCell ref="X383:X384"/>
+    <mergeCell ref="Y383:Y384"/>
+    <mergeCell ref="Z383:Z384"/>
+    <mergeCell ref="AA383:AA384"/>
+    <mergeCell ref="P383:P384"/>
+    <mergeCell ref="Q383:Q384"/>
+    <mergeCell ref="R460:R461"/>
+    <mergeCell ref="S460:S461"/>
+    <mergeCell ref="T460:T461"/>
+    <mergeCell ref="U460:U461"/>
+    <mergeCell ref="J460:J461"/>
+    <mergeCell ref="K460:K461"/>
+    <mergeCell ref="L460:L461"/>
+    <mergeCell ref="M460:M461"/>
+    <mergeCell ref="N460:N461"/>
+    <mergeCell ref="O460:O461"/>
+    <mergeCell ref="AH460:AH461"/>
+    <mergeCell ref="A510:A511"/>
+    <mergeCell ref="B510:B511"/>
+    <mergeCell ref="C510:C511"/>
+    <mergeCell ref="D510:D511"/>
+    <mergeCell ref="E510:E511"/>
+    <mergeCell ref="F510:F511"/>
+    <mergeCell ref="G510:G511"/>
+    <mergeCell ref="H510:H511"/>
+    <mergeCell ref="I510:I511"/>
+    <mergeCell ref="AB460:AB461"/>
+    <mergeCell ref="AC460:AC461"/>
+    <mergeCell ref="AD460:AD461"/>
+    <mergeCell ref="AE460:AE461"/>
+    <mergeCell ref="AF460:AF461"/>
+    <mergeCell ref="AG460:AG461"/>
+    <mergeCell ref="V460:V461"/>
+    <mergeCell ref="W460:W461"/>
+    <mergeCell ref="X460:X461"/>
+    <mergeCell ref="Y460:Y461"/>
+    <mergeCell ref="Z460:Z461"/>
+    <mergeCell ref="AA460:AA461"/>
+    <mergeCell ref="P460:P461"/>
+    <mergeCell ref="Q460:Q461"/>
+    <mergeCell ref="R510:R511"/>
+    <mergeCell ref="S510:S511"/>
+    <mergeCell ref="T510:T511"/>
+    <mergeCell ref="U510:U511"/>
+    <mergeCell ref="J510:J511"/>
+    <mergeCell ref="K510:K511"/>
+    <mergeCell ref="L510:L511"/>
+    <mergeCell ref="M510:M511"/>
+    <mergeCell ref="N510:N511"/>
+    <mergeCell ref="O510:O511"/>
     <mergeCell ref="AH510:AH511"/>
     <mergeCell ref="A554:A555"/>
     <mergeCell ref="B554:B555"/>
@@ -59929,398 +60241,33 @@
     <mergeCell ref="AA510:AA511"/>
     <mergeCell ref="P510:P511"/>
     <mergeCell ref="Q510:Q511"/>
-    <mergeCell ref="R510:R511"/>
-    <mergeCell ref="S510:S511"/>
-    <mergeCell ref="T510:T511"/>
-    <mergeCell ref="U510:U511"/>
-    <mergeCell ref="J510:J511"/>
-    <mergeCell ref="K510:K511"/>
-    <mergeCell ref="L510:L511"/>
-    <mergeCell ref="M510:M511"/>
-    <mergeCell ref="N510:N511"/>
-    <mergeCell ref="O510:O511"/>
-    <mergeCell ref="AH460:AH461"/>
-    <mergeCell ref="A510:A511"/>
-    <mergeCell ref="B510:B511"/>
-    <mergeCell ref="C510:C511"/>
-    <mergeCell ref="D510:D511"/>
-    <mergeCell ref="E510:E511"/>
-    <mergeCell ref="F510:F511"/>
-    <mergeCell ref="G510:G511"/>
-    <mergeCell ref="H510:H511"/>
-    <mergeCell ref="I510:I511"/>
-    <mergeCell ref="AB460:AB461"/>
-    <mergeCell ref="AC460:AC461"/>
-    <mergeCell ref="AD460:AD461"/>
-    <mergeCell ref="AE460:AE461"/>
-    <mergeCell ref="AF460:AF461"/>
-    <mergeCell ref="AG460:AG461"/>
-    <mergeCell ref="V460:V461"/>
-    <mergeCell ref="W460:W461"/>
-    <mergeCell ref="X460:X461"/>
-    <mergeCell ref="Y460:Y461"/>
-    <mergeCell ref="Z460:Z461"/>
-    <mergeCell ref="AA460:AA461"/>
-    <mergeCell ref="P460:P461"/>
-    <mergeCell ref="Q460:Q461"/>
-    <mergeCell ref="R460:R461"/>
-    <mergeCell ref="S460:S461"/>
-    <mergeCell ref="T460:T461"/>
-    <mergeCell ref="U460:U461"/>
-    <mergeCell ref="J460:J461"/>
-    <mergeCell ref="K460:K461"/>
-    <mergeCell ref="L460:L461"/>
-    <mergeCell ref="M460:M461"/>
-    <mergeCell ref="N460:N461"/>
-    <mergeCell ref="O460:O461"/>
-    <mergeCell ref="AH383:AH384"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="C460:C461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="E460:E461"/>
-    <mergeCell ref="F460:F461"/>
-    <mergeCell ref="G460:G461"/>
-    <mergeCell ref="H460:H461"/>
-    <mergeCell ref="I460:I461"/>
-    <mergeCell ref="AB383:AB384"/>
-    <mergeCell ref="AC383:AC384"/>
-    <mergeCell ref="AD383:AD384"/>
-    <mergeCell ref="AE383:AE384"/>
-    <mergeCell ref="AF383:AF384"/>
-    <mergeCell ref="AG383:AG384"/>
-    <mergeCell ref="V383:V384"/>
-    <mergeCell ref="W383:W384"/>
-    <mergeCell ref="X383:X384"/>
-    <mergeCell ref="Y383:Y384"/>
-    <mergeCell ref="Z383:Z384"/>
-    <mergeCell ref="AA383:AA384"/>
-    <mergeCell ref="P383:P384"/>
-    <mergeCell ref="Q383:Q384"/>
-    <mergeCell ref="R383:R384"/>
-    <mergeCell ref="S383:S384"/>
-    <mergeCell ref="T383:T384"/>
-    <mergeCell ref="U383:U384"/>
-    <mergeCell ref="J383:J384"/>
-    <mergeCell ref="K383:K384"/>
-    <mergeCell ref="L383:L384"/>
-    <mergeCell ref="M383:M384"/>
-    <mergeCell ref="N383:N384"/>
-    <mergeCell ref="O383:O384"/>
-    <mergeCell ref="AH330:AH331"/>
-    <mergeCell ref="A383:A384"/>
-    <mergeCell ref="B383:B384"/>
-    <mergeCell ref="C383:C384"/>
-    <mergeCell ref="D383:D384"/>
-    <mergeCell ref="E383:E384"/>
-    <mergeCell ref="F383:F384"/>
-    <mergeCell ref="G383:G384"/>
-    <mergeCell ref="H383:H384"/>
-    <mergeCell ref="I383:I384"/>
-    <mergeCell ref="AB330:AB331"/>
-    <mergeCell ref="AC330:AC331"/>
-    <mergeCell ref="AD330:AD331"/>
-    <mergeCell ref="AE330:AE331"/>
-    <mergeCell ref="AF330:AF331"/>
-    <mergeCell ref="AG330:AG331"/>
-    <mergeCell ref="U330:U331"/>
-    <mergeCell ref="V330:V331"/>
-    <mergeCell ref="W330:W331"/>
-    <mergeCell ref="Y330:Y331"/>
-    <mergeCell ref="Z330:Z331"/>
-    <mergeCell ref="AA330:AA331"/>
-    <mergeCell ref="O330:O331"/>
-    <mergeCell ref="P330:P331"/>
-    <mergeCell ref="Q330:Q331"/>
-    <mergeCell ref="R330:R331"/>
-    <mergeCell ref="S330:S331"/>
-    <mergeCell ref="T330:T331"/>
-    <mergeCell ref="I330:I331"/>
-    <mergeCell ref="J330:J331"/>
-    <mergeCell ref="K330:K331"/>
-    <mergeCell ref="L330:L331"/>
-    <mergeCell ref="M330:M331"/>
-    <mergeCell ref="N330:N331"/>
-    <mergeCell ref="AG292:AG293"/>
-    <mergeCell ref="AH292:AH293"/>
-    <mergeCell ref="A330:A331"/>
-    <mergeCell ref="B330:B331"/>
-    <mergeCell ref="C330:C331"/>
-    <mergeCell ref="D330:D331"/>
-    <mergeCell ref="E330:E331"/>
-    <mergeCell ref="F330:F331"/>
-    <mergeCell ref="G330:G331"/>
-    <mergeCell ref="H330:H331"/>
-    <mergeCell ref="AA292:AA293"/>
-    <mergeCell ref="AB292:AB293"/>
-    <mergeCell ref="AC292:AC293"/>
-    <mergeCell ref="AD292:AD293"/>
-    <mergeCell ref="AE292:AE293"/>
-    <mergeCell ref="AF292:AF293"/>
-    <mergeCell ref="U292:U293"/>
-    <mergeCell ref="V292:V293"/>
-    <mergeCell ref="W292:W293"/>
-    <mergeCell ref="X292:X293"/>
-    <mergeCell ref="Y292:Y293"/>
-    <mergeCell ref="Z292:Z293"/>
-    <mergeCell ref="O292:O293"/>
-    <mergeCell ref="P292:P293"/>
-    <mergeCell ref="Q292:Q293"/>
-    <mergeCell ref="R292:R293"/>
-    <mergeCell ref="S292:S293"/>
-    <mergeCell ref="T292:T293"/>
-    <mergeCell ref="I292:I293"/>
-    <mergeCell ref="J292:J293"/>
-    <mergeCell ref="K292:K293"/>
-    <mergeCell ref="L292:L293"/>
-    <mergeCell ref="M292:M293"/>
-    <mergeCell ref="N292:N293"/>
-    <mergeCell ref="AG140:AG141"/>
-    <mergeCell ref="AH140:AH141"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="C292:C293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="E292:E293"/>
-    <mergeCell ref="F292:F293"/>
-    <mergeCell ref="G292:G293"/>
-    <mergeCell ref="H292:H293"/>
-    <mergeCell ref="AA140:AA141"/>
-    <mergeCell ref="AB140:AB141"/>
-    <mergeCell ref="AC140:AC141"/>
-    <mergeCell ref="AD140:AD141"/>
-    <mergeCell ref="AE140:AE141"/>
-    <mergeCell ref="AF140:AF141"/>
-    <mergeCell ref="T140:T141"/>
-    <mergeCell ref="U140:U141"/>
-    <mergeCell ref="V140:V141"/>
-    <mergeCell ref="W140:W141"/>
-    <mergeCell ref="Y140:Y141"/>
-    <mergeCell ref="Z140:Z141"/>
-    <mergeCell ref="N140:N141"/>
-    <mergeCell ref="O140:O141"/>
-    <mergeCell ref="P140:P141"/>
-    <mergeCell ref="Q140:Q141"/>
-    <mergeCell ref="R140:R141"/>
-    <mergeCell ref="S140:S141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="L140:L141"/>
-    <mergeCell ref="M140:M141"/>
-    <mergeCell ref="AF138:AF139"/>
-    <mergeCell ref="AG138:AG139"/>
-    <mergeCell ref="AH138:AH139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="Z138:Z139"/>
-    <mergeCell ref="AA138:AA139"/>
-    <mergeCell ref="AB138:AB139"/>
-    <mergeCell ref="AC138:AC139"/>
-    <mergeCell ref="AD138:AD139"/>
-    <mergeCell ref="AE138:AE139"/>
-    <mergeCell ref="T138:T139"/>
-    <mergeCell ref="U138:U139"/>
-    <mergeCell ref="V138:V139"/>
-    <mergeCell ref="W138:W139"/>
-    <mergeCell ref="X138:X139"/>
-    <mergeCell ref="Y138:Y139"/>
-    <mergeCell ref="N138:N139"/>
-    <mergeCell ref="O138:O139"/>
-    <mergeCell ref="P138:P139"/>
-    <mergeCell ref="Q138:Q139"/>
-    <mergeCell ref="R138:R139"/>
-    <mergeCell ref="S138:S139"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="L138:L139"/>
-    <mergeCell ref="M138:M139"/>
-    <mergeCell ref="AF130:AF132"/>
-    <mergeCell ref="AG130:AG132"/>
-    <mergeCell ref="AH130:AH132"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="Z130:Z132"/>
-    <mergeCell ref="AA130:AA132"/>
-    <mergeCell ref="AB130:AB132"/>
-    <mergeCell ref="AC130:AC132"/>
-    <mergeCell ref="AD130:AD132"/>
-    <mergeCell ref="AE130:AE132"/>
-    <mergeCell ref="S130:S132"/>
-    <mergeCell ref="T130:T132"/>
-    <mergeCell ref="U130:U132"/>
-    <mergeCell ref="V130:V132"/>
-    <mergeCell ref="W130:W132"/>
-    <mergeCell ref="Y130:Y132"/>
-    <mergeCell ref="M130:M132"/>
-    <mergeCell ref="N130:N132"/>
-    <mergeCell ref="O130:O132"/>
-    <mergeCell ref="P130:P132"/>
-    <mergeCell ref="Q130:Q132"/>
-    <mergeCell ref="R130:R132"/>
-    <mergeCell ref="G130:G132"/>
-    <mergeCell ref="H130:H132"/>
-    <mergeCell ref="I130:I132"/>
-    <mergeCell ref="J130:J132"/>
-    <mergeCell ref="K130:K132"/>
-    <mergeCell ref="L130:L132"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="F130:F132"/>
-    <mergeCell ref="AC120:AC122"/>
-    <mergeCell ref="AD120:AD122"/>
-    <mergeCell ref="AE120:AE122"/>
-    <mergeCell ref="AF120:AF122"/>
-    <mergeCell ref="AG120:AG122"/>
-    <mergeCell ref="AH120:AH122"/>
-    <mergeCell ref="V120:V122"/>
-    <mergeCell ref="W120:W122"/>
-    <mergeCell ref="Y120:Y122"/>
-    <mergeCell ref="Z120:Z122"/>
-    <mergeCell ref="AA120:AA122"/>
-    <mergeCell ref="AB120:AB122"/>
-    <mergeCell ref="P120:P122"/>
-    <mergeCell ref="Q120:Q122"/>
-    <mergeCell ref="R120:R122"/>
-    <mergeCell ref="S120:S122"/>
-    <mergeCell ref="T120:T122"/>
-    <mergeCell ref="U120:U122"/>
-    <mergeCell ref="J120:J122"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="L120:L122"/>
-    <mergeCell ref="M120:M122"/>
-    <mergeCell ref="N120:N122"/>
-    <mergeCell ref="O120:O122"/>
-    <mergeCell ref="AH81:AH83"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="E120:E122"/>
-    <mergeCell ref="F120:F122"/>
-    <mergeCell ref="G120:G122"/>
-    <mergeCell ref="H120:H122"/>
-    <mergeCell ref="I120:I122"/>
-    <mergeCell ref="AB81:AB83"/>
-    <mergeCell ref="AC81:AC83"/>
-    <mergeCell ref="AD81:AD83"/>
-    <mergeCell ref="AE81:AE83"/>
-    <mergeCell ref="AF81:AF83"/>
-    <mergeCell ref="AG81:AG83"/>
-    <mergeCell ref="U81:U83"/>
-    <mergeCell ref="V81:V83"/>
-    <mergeCell ref="W81:W83"/>
-    <mergeCell ref="Y81:Y83"/>
-    <mergeCell ref="Z81:Z83"/>
-    <mergeCell ref="AA81:AA83"/>
-    <mergeCell ref="O81:O83"/>
-    <mergeCell ref="P81:P83"/>
-    <mergeCell ref="Q81:Q83"/>
-    <mergeCell ref="R81:R83"/>
-    <mergeCell ref="S81:S83"/>
-    <mergeCell ref="T81:T83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="L81:L83"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="N81:N83"/>
-    <mergeCell ref="AG68:AG70"/>
-    <mergeCell ref="AH68:AH70"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="AA68:AA70"/>
-    <mergeCell ref="AB68:AB70"/>
-    <mergeCell ref="AC68:AC70"/>
-    <mergeCell ref="AD68:AD70"/>
-    <mergeCell ref="AE68:AE70"/>
-    <mergeCell ref="AF68:AF70"/>
-    <mergeCell ref="T68:T70"/>
-    <mergeCell ref="U68:U70"/>
-    <mergeCell ref="V68:V70"/>
-    <mergeCell ref="W68:W70"/>
-    <mergeCell ref="Y68:Y70"/>
-    <mergeCell ref="Z68:Z70"/>
-    <mergeCell ref="N68:N70"/>
-    <mergeCell ref="O68:O70"/>
-    <mergeCell ref="P68:P70"/>
-    <mergeCell ref="Q68:Q70"/>
-    <mergeCell ref="R68:R70"/>
-    <mergeCell ref="S68:S70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="AF63:AF64"/>
-    <mergeCell ref="AG63:AG64"/>
-    <mergeCell ref="AH63:AH64"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="Z63:Z64"/>
-    <mergeCell ref="AA63:AA64"/>
-    <mergeCell ref="AB63:AB64"/>
-    <mergeCell ref="AC63:AC64"/>
-    <mergeCell ref="AD63:AD64"/>
-    <mergeCell ref="AE63:AE64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="V63:V64"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="Y63:Y64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="P554:P555"/>
+    <mergeCell ref="Q554:Q555"/>
+    <mergeCell ref="R554:R555"/>
+    <mergeCell ref="S554:S555"/>
+    <mergeCell ref="T554:T555"/>
+    <mergeCell ref="U554:U555"/>
+    <mergeCell ref="J554:J555"/>
+    <mergeCell ref="K554:K555"/>
+    <mergeCell ref="L554:L555"/>
+    <mergeCell ref="M554:M555"/>
+    <mergeCell ref="N554:N555"/>
+    <mergeCell ref="O554:O555"/>
+    <mergeCell ref="AC554:AC555"/>
+    <mergeCell ref="AD554:AD555"/>
+    <mergeCell ref="AE554:AE555"/>
+    <mergeCell ref="AF554:AF555"/>
+    <mergeCell ref="AG554:AG555"/>
+    <mergeCell ref="AH554:AH555"/>
+    <mergeCell ref="V554:V555"/>
+    <mergeCell ref="W554:W555"/>
+    <mergeCell ref="Y554:Y555"/>
+    <mergeCell ref="Z554:Z555"/>
+    <mergeCell ref="AA554:AA555"/>
+    <mergeCell ref="AB554:AB555"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -60356,9 +60303,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60541,19 +60491,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639A578E-A17B-4D8F-8DF3-A59D68319879}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF486A8C-5766-41AD-86AE-A89FED46B98B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -60578,9 +60524,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF486A8C-5766-41AD-86AE-A89FED46B98B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639A578E-A17B-4D8F-8DF3-A59D68319879}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>